--- a/工作项目进度表.xlsx
+++ b/工作项目进度表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengchunying\Desktop\total\NexTecht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBED573-38C3-4A55-8BC8-60479D45A991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAD7AF9-0DFB-4E54-AE17-16944470B06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,90 +1079,6 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1189,6 +1105,87 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1452,13 +1449,13 @@
                 <c:formatCode>0"项"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5425,7 +5422,7 @@
   <dimension ref="A1:ES239"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="U165" sqref="U165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5586,161 +5583,161 @@
     </row>
     <row r="2" spans="1:119" ht="45" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="51"/>
-      <c r="BK2" s="51"/>
-      <c r="BL2" s="51"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="51"/>
-      <c r="BP2" s="51"/>
-      <c r="BQ2" s="51"/>
-      <c r="BR2" s="51"/>
-      <c r="BS2" s="51"/>
-      <c r="BT2" s="51"/>
-      <c r="BU2" s="51"/>
-      <c r="BV2" s="51"/>
-      <c r="BW2" s="51"/>
-      <c r="BX2" s="51"/>
-      <c r="BY2" s="51"/>
-      <c r="BZ2" s="51"/>
-      <c r="CA2" s="51"/>
-      <c r="CB2" s="51"/>
-      <c r="CC2" s="51"/>
-      <c r="CD2" s="51"/>
-      <c r="CE2" s="51"/>
-      <c r="CF2" s="51"/>
-      <c r="CG2" s="51"/>
-      <c r="CH2" s="51"/>
-      <c r="CI2" s="51"/>
-      <c r="CJ2" s="51"/>
-      <c r="CK2" s="51"/>
-      <c r="CL2" s="51"/>
-      <c r="CM2" s="51"/>
-      <c r="CN2" s="51"/>
-      <c r="CO2" s="51"/>
-      <c r="CP2" s="51"/>
-      <c r="CQ2" s="51"/>
-      <c r="CR2" s="51"/>
-      <c r="CS2" s="51"/>
-      <c r="CT2" s="51"/>
-      <c r="CU2" s="51"/>
-      <c r="CV2" s="51"/>
-      <c r="CW2" s="51"/>
-      <c r="CX2" s="51"/>
-      <c r="CY2" s="51"/>
-      <c r="CZ2" s="51"/>
-      <c r="DA2" s="51"/>
-      <c r="DB2" s="51"/>
-      <c r="DC2" s="51"/>
-      <c r="DD2" s="51"/>
-      <c r="DE2" s="51"/>
-      <c r="DF2" s="51"/>
-      <c r="DG2" s="51"/>
-      <c r="DH2" s="51"/>
-      <c r="DI2" s="51"/>
-      <c r="DJ2" s="51"/>
-      <c r="DK2" s="51"/>
-      <c r="DL2" s="51"/>
-      <c r="DM2" s="51"/>
-      <c r="DN2" s="51"/>
-      <c r="DO2" s="51"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="82"/>
+      <c r="BM2" s="82"/>
+      <c r="BN2" s="82"/>
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="82"/>
+      <c r="BQ2" s="82"/>
+      <c r="BR2" s="82"/>
+      <c r="BS2" s="82"/>
+      <c r="BT2" s="82"/>
+      <c r="BU2" s="82"/>
+      <c r="BV2" s="82"/>
+      <c r="BW2" s="82"/>
+      <c r="BX2" s="82"/>
+      <c r="BY2" s="82"/>
+      <c r="BZ2" s="82"/>
+      <c r="CA2" s="82"/>
+      <c r="CB2" s="82"/>
+      <c r="CC2" s="82"/>
+      <c r="CD2" s="82"/>
+      <c r="CE2" s="82"/>
+      <c r="CF2" s="82"/>
+      <c r="CG2" s="82"/>
+      <c r="CH2" s="82"/>
+      <c r="CI2" s="82"/>
+      <c r="CJ2" s="82"/>
+      <c r="CK2" s="82"/>
+      <c r="CL2" s="82"/>
+      <c r="CM2" s="82"/>
+      <c r="CN2" s="82"/>
+      <c r="CO2" s="82"/>
+      <c r="CP2" s="82"/>
+      <c r="CQ2" s="82"/>
+      <c r="CR2" s="82"/>
+      <c r="CS2" s="82"/>
+      <c r="CT2" s="82"/>
+      <c r="CU2" s="82"/>
+      <c r="CV2" s="82"/>
+      <c r="CW2" s="82"/>
+      <c r="CX2" s="82"/>
+      <c r="CY2" s="82"/>
+      <c r="CZ2" s="82"/>
+      <c r="DA2" s="82"/>
+      <c r="DB2" s="82"/>
+      <c r="DC2" s="82"/>
+      <c r="DD2" s="82"/>
+      <c r="DE2" s="82"/>
+      <c r="DF2" s="82"/>
+      <c r="DG2" s="82"/>
+      <c r="DH2" s="82"/>
+      <c r="DI2" s="82"/>
+      <c r="DJ2" s="82"/>
+      <c r="DK2" s="82"/>
+      <c r="DL2" s="82"/>
+      <c r="DM2" s="82"/>
+      <c r="DN2" s="82"/>
+      <c r="DO2" s="82"/>
     </row>
     <row r="3" spans="1:119" ht="27.4" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
       <c r="AB3" s="29"/>
       <c r="AC3" s="29"/>
       <c r="AD3" s="29"/>
@@ -5766,32 +5763,32 @@
     </row>
     <row r="4" spans="1:119" ht="14" customHeight="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
       <c r="O4" s="40"/>
       <c r="P4" s="40"/>
       <c r="Q4" s="40"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
       <c r="AB4" s="44"/>
       <c r="AC4" s="44"/>
       <c r="AD4" s="44"/>
@@ -5818,39 +5815,39 @@
     <row r="5" spans="1:119" ht="25.05" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="71"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="38"/>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
       <c r="Q5" s="40"/>
       <c r="R5" s="20"/>
       <c r="S5" s="13"/>
-      <c r="T5" s="49">
+      <c r="T5" s="80">
         <f ca="1">NOW()</f>
-        <v>45807.870542476849</v>
-      </c>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
+        <v>45820.912035069443</v>
+      </c>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
       <c r="AA5" s="27"/>
       <c r="AB5" s="44"/>
       <c r="AC5" s="44"/>
@@ -5878,20 +5875,20 @@
     <row r="6" spans="1:119" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
@@ -5945,58 +5942,58 @@
     <row r="7" spans="1:119" ht="25.05" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="56"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="60">
+      <c r="F7" s="62">
         <f>COUNTIF(D18:D1923,"完成")</f>
-        <v>17</v>
-      </c>
-      <c r="G7" s="60"/>
+        <v>22</v>
+      </c>
+      <c r="G7" s="62"/>
       <c r="H7" s="39"/>
-      <c r="I7" s="60">
+      <c r="I7" s="62">
         <f>COUNTIF(D18:D1923,"进行中")</f>
-        <v>4</v>
-      </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="20"/>
       <c r="S7" s="13"/>
-      <c r="T7" s="28" t="str">
+      <c r="T7" s="28">
         <f t="array" aca="1" ref="T7:Z12" ca="1">IF(MONTH(DATE(YEAR(T5),MONTH(T5),1))&lt;&gt;MONTH(DATE(YEAR(T5),MONTH(T5),1)-(WEEKDAY(DATE(YEAR(T5),MONTH(T5),1))-1)+{0;1;2;3;4;5}*7+{1,2,3,4,5,6,7}-1),"",DATE(YEAR(T5),MONTH(T5),1)-(WEEKDAY(DATE(YEAR(T5),MONTH(T5),1))-1)+{0;1;2;3;4;5}*7+{1,2,3,4,5,6,7}-1)</f>
-        <v/>
-      </c>
-      <c r="U7" s="28" t="str">
+        <v>45809</v>
+      </c>
+      <c r="U7" s="28">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="V7" s="28" t="str">
+        <v>45810</v>
+      </c>
+      <c r="V7" s="28">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="W7" s="28" t="str">
+        <v>45811</v>
+      </c>
+      <c r="W7" s="28">
         <f ca="1"/>
-        <v/>
+        <v>45812</v>
       </c>
       <c r="X7" s="28">
         <f ca="1"/>
-        <v>45778</v>
+        <v>45813</v>
       </c>
       <c r="Y7" s="28">
         <f ca="1"/>
-        <v>45779</v>
+        <v>45814</v>
       </c>
       <c r="Z7" s="28">
         <f ca="1"/>
-        <v>45780</v>
+        <v>45815</v>
       </c>
       <c r="AA7" s="28"/>
       <c r="AB7" s="45"/>
@@ -6025,15 +6022,15 @@
     <row r="8" spans="1:119" ht="25.05" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="22"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -6046,31 +6043,31 @@
       <c r="S8" s="13"/>
       <c r="T8" s="28">
         <f ca="1"/>
-        <v>45781</v>
+        <v>45816</v>
       </c>
       <c r="U8" s="28">
         <f ca="1"/>
-        <v>45782</v>
+        <v>45817</v>
       </c>
       <c r="V8" s="28">
         <f ca="1"/>
-        <v>45783</v>
+        <v>45818</v>
       </c>
       <c r="W8" s="28">
         <f ca="1"/>
-        <v>45784</v>
+        <v>45819</v>
       </c>
       <c r="X8" s="28">
         <f ca="1"/>
-        <v>45785</v>
+        <v>45820</v>
       </c>
       <c r="Y8" s="28">
         <f ca="1"/>
-        <v>45786</v>
+        <v>45821</v>
       </c>
       <c r="Z8" s="28">
         <f ca="1"/>
-        <v>45787</v>
+        <v>45822</v>
       </c>
       <c r="AA8" s="28"/>
       <c r="AB8" s="45"/>
@@ -6099,15 +6096,15 @@
     <row r="9" spans="1:119" ht="25.05" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="56"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="71"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="18"/>
       <c r="I9" s="11" t="str">
         <f>F5</f>
@@ -6131,31 +6128,31 @@
       <c r="S9" s="13"/>
       <c r="T9" s="28">
         <f ca="1"/>
-        <v>45788</v>
+        <v>45823</v>
       </c>
       <c r="U9" s="28">
         <f ca="1"/>
-        <v>45789</v>
+        <v>45824</v>
       </c>
       <c r="V9" s="28">
         <f ca="1"/>
-        <v>45790</v>
+        <v>45825</v>
       </c>
       <c r="W9" s="28">
         <f ca="1"/>
-        <v>45791</v>
+        <v>45826</v>
       </c>
       <c r="X9" s="28">
         <f ca="1"/>
-        <v>45792</v>
+        <v>45827</v>
       </c>
       <c r="Y9" s="28">
         <f ca="1"/>
-        <v>45793</v>
+        <v>45828</v>
       </c>
       <c r="Z9" s="28">
         <f ca="1"/>
-        <v>45794</v>
+        <v>45829</v>
       </c>
       <c r="AA9" s="28"/>
       <c r="AB9" s="45"/>
@@ -6187,20 +6184,20 @@
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="18"/>
       <c r="I10" s="43">
         <f>F7</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J10" s="43">
         <f>I7</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10" s="42">
         <f>F11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
@@ -6212,31 +6209,31 @@
       <c r="S10" s="13"/>
       <c r="T10" s="28">
         <f ca="1"/>
-        <v>45795</v>
+        <v>45830</v>
       </c>
       <c r="U10" s="28">
         <f ca="1"/>
-        <v>45796</v>
+        <v>45831</v>
       </c>
       <c r="V10" s="28">
         <f ca="1"/>
-        <v>45797</v>
+        <v>45832</v>
       </c>
       <c r="W10" s="28">
         <f ca="1"/>
-        <v>45798</v>
+        <v>45833</v>
       </c>
       <c r="X10" s="28">
         <f ca="1"/>
-        <v>45799</v>
+        <v>45834</v>
       </c>
       <c r="Y10" s="28">
         <f ca="1"/>
-        <v>45800</v>
+        <v>45835</v>
       </c>
       <c r="Z10" s="28">
         <f ca="1"/>
-        <v>45801</v>
+        <v>45836</v>
       </c>
       <c r="AA10" s="28"/>
       <c r="AB10" s="45"/>
@@ -6268,11 +6265,11 @@
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="60">
+      <c r="F11" s="62">
         <f>COUNTIF(D18:D1923,"未开始")</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="62"/>
       <c r="H11" s="18"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -6287,31 +6284,31 @@
       <c r="S11" s="13"/>
       <c r="T11" s="28">
         <f ca="1"/>
-        <v>45802</v>
+        <v>45837</v>
       </c>
       <c r="U11" s="28">
         <f ca="1"/>
-        <v>45803</v>
-      </c>
-      <c r="V11" s="28">
+        <v>45838</v>
+      </c>
+      <c r="V11" s="28" t="str">
         <f ca="1"/>
-        <v>45804</v>
-      </c>
-      <c r="W11" s="28">
+        <v/>
+      </c>
+      <c r="W11" s="28" t="str">
         <f ca="1"/>
-        <v>45805</v>
-      </c>
-      <c r="X11" s="28">
+        <v/>
+      </c>
+      <c r="X11" s="28" t="str">
         <f ca="1"/>
-        <v>45806</v>
-      </c>
-      <c r="Y11" s="28">
+        <v/>
+      </c>
+      <c r="Y11" s="28" t="str">
         <f ca="1"/>
-        <v>45807</v>
-      </c>
-      <c r="Z11" s="28">
+        <v/>
+      </c>
+      <c r="Z11" s="28" t="str">
         <f ca="1"/>
-        <v>45808</v>
+        <v/>
       </c>
       <c r="AA11" s="28"/>
       <c r="AB11" s="45"/>
@@ -6446,7 +6443,7 @@
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
       <c r="AJ13" s="28"/>
-      <c r="AK13" s="75"/>
+      <c r="AK13" s="13"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
@@ -6462,12 +6459,12 @@
     </row>
     <row r="14" spans="1:119" s="4" customFormat="1" ht="25.05" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -6496,48 +6493,48 @@
       <c r="AH14" s="28"/>
       <c r="AI14" s="28"/>
       <c r="AJ14" s="28"/>
-      <c r="AK14" s="75"/>
+      <c r="AK14" s="13"/>
     </row>
     <row r="15" spans="1:119" ht="25.05" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
       <c r="AE15" s="28"/>
       <c r="AF15" s="28"/>
       <c r="AG15" s="28"/>
       <c r="AH15" s="28"/>
       <c r="AI15" s="28"/>
       <c r="AJ15" s="28"/>
-      <c r="AK15" s="75"/>
+      <c r="AK15" s="13"/>
       <c r="AL15" s="8"/>
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
@@ -6553,35 +6550,35 @@
     </row>
     <row r="16" spans="1:119" ht="25.05" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
       <c r="AE16" s="47"/>
       <c r="AF16" s="47"/>
       <c r="AG16" s="47"/>
@@ -6603,614 +6600,614 @@
     </row>
     <row r="17" spans="1:149" s="1" customFormat="1" ht="29" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="H17" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="81">
+      <c r="I17" s="53">
         <f>MIN($F$18:$F$19913)</f>
         <v>45716</v>
       </c>
-      <c r="J17" s="81">
+      <c r="J17" s="53">
         <f>I17+1</f>
         <v>45717</v>
       </c>
-      <c r="K17" s="81">
+      <c r="K17" s="53">
         <f t="shared" ref="K17:AY17" si="0">J17+1</f>
         <v>45718</v>
       </c>
-      <c r="L17" s="81">
+      <c r="L17" s="53">
         <f t="shared" si="0"/>
         <v>45719</v>
       </c>
-      <c r="M17" s="81">
+      <c r="M17" s="53">
         <f t="shared" si="0"/>
         <v>45720</v>
       </c>
-      <c r="N17" s="81">
+      <c r="N17" s="53">
         <f t="shared" si="0"/>
         <v>45721</v>
       </c>
-      <c r="O17" s="81">
+      <c r="O17" s="53">
         <f t="shared" si="0"/>
         <v>45722</v>
       </c>
-      <c r="P17" s="81">
+      <c r="P17" s="53">
         <f t="shared" si="0"/>
         <v>45723</v>
       </c>
-      <c r="Q17" s="81">
+      <c r="Q17" s="53">
         <f t="shared" si="0"/>
         <v>45724</v>
       </c>
-      <c r="R17" s="81">
+      <c r="R17" s="53">
         <f t="shared" si="0"/>
         <v>45725</v>
       </c>
-      <c r="S17" s="81">
+      <c r="S17" s="53">
         <f t="shared" si="0"/>
         <v>45726</v>
       </c>
-      <c r="T17" s="81">
+      <c r="T17" s="53">
         <f t="shared" si="0"/>
         <v>45727</v>
       </c>
-      <c r="U17" s="81">
+      <c r="U17" s="53">
         <f t="shared" si="0"/>
         <v>45728</v>
       </c>
-      <c r="V17" s="81">
+      <c r="V17" s="53">
         <f t="shared" si="0"/>
         <v>45729</v>
       </c>
-      <c r="W17" s="81">
+      <c r="W17" s="53">
         <f t="shared" si="0"/>
         <v>45730</v>
       </c>
-      <c r="X17" s="81">
+      <c r="X17" s="53">
         <f t="shared" si="0"/>
         <v>45731</v>
       </c>
-      <c r="Y17" s="81">
+      <c r="Y17" s="53">
         <f t="shared" si="0"/>
         <v>45732</v>
       </c>
-      <c r="Z17" s="81">
+      <c r="Z17" s="53">
         <f t="shared" si="0"/>
         <v>45733</v>
       </c>
-      <c r="AA17" s="81">
+      <c r="AA17" s="53">
         <f t="shared" si="0"/>
         <v>45734</v>
       </c>
-      <c r="AB17" s="81">
+      <c r="AB17" s="53">
         <f t="shared" si="0"/>
         <v>45735</v>
       </c>
-      <c r="AC17" s="81">
+      <c r="AC17" s="53">
         <f t="shared" si="0"/>
         <v>45736</v>
       </c>
-      <c r="AD17" s="81">
+      <c r="AD17" s="53">
         <f t="shared" si="0"/>
         <v>45737</v>
       </c>
-      <c r="AE17" s="81">
+      <c r="AE17" s="53">
         <f>AD17+1</f>
         <v>45738</v>
       </c>
-      <c r="AF17" s="81">
+      <c r="AF17" s="53">
         <f t="shared" si="0"/>
         <v>45739</v>
       </c>
-      <c r="AG17" s="81">
+      <c r="AG17" s="53">
         <f t="shared" si="0"/>
         <v>45740</v>
       </c>
-      <c r="AH17" s="81">
+      <c r="AH17" s="53">
         <f t="shared" si="0"/>
         <v>45741</v>
       </c>
-      <c r="AI17" s="81">
+      <c r="AI17" s="53">
         <f t="shared" si="0"/>
         <v>45742</v>
       </c>
-      <c r="AJ17" s="81">
+      <c r="AJ17" s="53">
         <f t="shared" si="0"/>
         <v>45743</v>
       </c>
-      <c r="AK17" s="81">
+      <c r="AK17" s="53">
         <f t="shared" si="0"/>
         <v>45744</v>
       </c>
-      <c r="AL17" s="81">
+      <c r="AL17" s="53">
         <f t="shared" si="0"/>
         <v>45745</v>
       </c>
-      <c r="AM17" s="81">
+      <c r="AM17" s="53">
         <f t="shared" si="0"/>
         <v>45746</v>
       </c>
-      <c r="AN17" s="81">
+      <c r="AN17" s="53">
         <f t="shared" si="0"/>
         <v>45747</v>
       </c>
-      <c r="AO17" s="81">
+      <c r="AO17" s="53">
         <f t="shared" si="0"/>
         <v>45748</v>
       </c>
-      <c r="AP17" s="81">
+      <c r="AP17" s="53">
         <f t="shared" si="0"/>
         <v>45749</v>
       </c>
-      <c r="AQ17" s="81">
+      <c r="AQ17" s="53">
         <f t="shared" si="0"/>
         <v>45750</v>
       </c>
-      <c r="AR17" s="81">
+      <c r="AR17" s="53">
         <f t="shared" si="0"/>
         <v>45751</v>
       </c>
-      <c r="AS17" s="81">
+      <c r="AS17" s="53">
         <f t="shared" si="0"/>
         <v>45752</v>
       </c>
-      <c r="AT17" s="81">
+      <c r="AT17" s="53">
         <f t="shared" si="0"/>
         <v>45753</v>
       </c>
-      <c r="AU17" s="81">
+      <c r="AU17" s="53">
         <f t="shared" si="0"/>
         <v>45754</v>
       </c>
-      <c r="AV17" s="81">
+      <c r="AV17" s="53">
         <f t="shared" si="0"/>
         <v>45755</v>
       </c>
-      <c r="AW17" s="81">
+      <c r="AW17" s="53">
         <f t="shared" si="0"/>
         <v>45756</v>
       </c>
-      <c r="AX17" s="81">
+      <c r="AX17" s="53">
         <f t="shared" si="0"/>
         <v>45757</v>
       </c>
-      <c r="AY17" s="81">
+      <c r="AY17" s="53">
         <f t="shared" si="0"/>
         <v>45758</v>
       </c>
-      <c r="AZ17" s="81">
+      <c r="AZ17" s="53">
         <f t="shared" ref="AZ17:BV17" si="1">AY17+1</f>
         <v>45759</v>
       </c>
-      <c r="BA17" s="81">
+      <c r="BA17" s="53">
         <f t="shared" si="1"/>
         <v>45760</v>
       </c>
-      <c r="BB17" s="81">
+      <c r="BB17" s="53">
         <f t="shared" si="1"/>
         <v>45761</v>
       </c>
-      <c r="BC17" s="81">
+      <c r="BC17" s="53">
         <f t="shared" si="1"/>
         <v>45762</v>
       </c>
-      <c r="BD17" s="81">
+      <c r="BD17" s="53">
         <f t="shared" si="1"/>
         <v>45763</v>
       </c>
-      <c r="BE17" s="81">
+      <c r="BE17" s="53">
         <f t="shared" si="1"/>
         <v>45764</v>
       </c>
-      <c r="BF17" s="81">
+      <c r="BF17" s="53">
         <f t="shared" si="1"/>
         <v>45765</v>
       </c>
-      <c r="BG17" s="81">
+      <c r="BG17" s="53">
         <f t="shared" si="1"/>
         <v>45766</v>
       </c>
-      <c r="BH17" s="81">
+      <c r="BH17" s="53">
         <f t="shared" si="1"/>
         <v>45767</v>
       </c>
-      <c r="BI17" s="81">
+      <c r="BI17" s="53">
         <f t="shared" si="1"/>
         <v>45768</v>
       </c>
-      <c r="BJ17" s="81">
+      <c r="BJ17" s="53">
         <f t="shared" si="1"/>
         <v>45769</v>
       </c>
-      <c r="BK17" s="81">
+      <c r="BK17" s="53">
         <f t="shared" si="1"/>
         <v>45770</v>
       </c>
-      <c r="BL17" s="81">
+      <c r="BL17" s="53">
         <f t="shared" si="1"/>
         <v>45771</v>
       </c>
-      <c r="BM17" s="81">
+      <c r="BM17" s="53">
         <f t="shared" si="1"/>
         <v>45772</v>
       </c>
-      <c r="BN17" s="81">
+      <c r="BN17" s="53">
         <f t="shared" si="1"/>
         <v>45773</v>
       </c>
-      <c r="BO17" s="81">
+      <c r="BO17" s="53">
         <f t="shared" si="1"/>
         <v>45774</v>
       </c>
-      <c r="BP17" s="81">
+      <c r="BP17" s="53">
         <f t="shared" si="1"/>
         <v>45775</v>
       </c>
-      <c r="BQ17" s="81">
+      <c r="BQ17" s="53">
         <f t="shared" si="1"/>
         <v>45776</v>
       </c>
-      <c r="BR17" s="81">
+      <c r="BR17" s="53">
         <f t="shared" si="1"/>
         <v>45777</v>
       </c>
-      <c r="BS17" s="81">
+      <c r="BS17" s="53">
         <f t="shared" si="1"/>
         <v>45778</v>
       </c>
-      <c r="BT17" s="81">
+      <c r="BT17" s="53">
         <f t="shared" si="1"/>
         <v>45779</v>
       </c>
-      <c r="BU17" s="81">
+      <c r="BU17" s="53">
         <f t="shared" si="1"/>
         <v>45780</v>
       </c>
-      <c r="BV17" s="81">
+      <c r="BV17" s="53">
         <f t="shared" si="1"/>
         <v>45781</v>
       </c>
-      <c r="BW17" s="81">
+      <c r="BW17" s="53">
         <f t="shared" ref="BW17:CS17" si="2">BV17+1</f>
         <v>45782</v>
       </c>
-      <c r="BX17" s="81">
+      <c r="BX17" s="53">
         <f t="shared" si="2"/>
         <v>45783</v>
       </c>
-      <c r="BY17" s="81">
+      <c r="BY17" s="53">
         <f t="shared" si="2"/>
         <v>45784</v>
       </c>
-      <c r="BZ17" s="81">
+      <c r="BZ17" s="53">
         <f t="shared" si="2"/>
         <v>45785</v>
       </c>
-      <c r="CA17" s="81">
+      <c r="CA17" s="53">
         <f t="shared" si="2"/>
         <v>45786</v>
       </c>
-      <c r="CB17" s="81">
+      <c r="CB17" s="53">
         <f t="shared" si="2"/>
         <v>45787</v>
       </c>
-      <c r="CC17" s="81">
+      <c r="CC17" s="53">
         <f t="shared" si="2"/>
         <v>45788</v>
       </c>
-      <c r="CD17" s="81">
+      <c r="CD17" s="53">
         <f t="shared" si="2"/>
         <v>45789</v>
       </c>
-      <c r="CE17" s="81">
+      <c r="CE17" s="53">
         <f t="shared" si="2"/>
         <v>45790</v>
       </c>
-      <c r="CF17" s="81">
+      <c r="CF17" s="53">
         <f t="shared" si="2"/>
         <v>45791</v>
       </c>
-      <c r="CG17" s="81">
+      <c r="CG17" s="53">
         <f t="shared" si="2"/>
         <v>45792</v>
       </c>
-      <c r="CH17" s="81">
+      <c r="CH17" s="53">
         <f t="shared" si="2"/>
         <v>45793</v>
       </c>
-      <c r="CI17" s="81">
+      <c r="CI17" s="53">
         <f t="shared" si="2"/>
         <v>45794</v>
       </c>
-      <c r="CJ17" s="81">
+      <c r="CJ17" s="53">
         <f t="shared" si="2"/>
         <v>45795</v>
       </c>
-      <c r="CK17" s="81">
+      <c r="CK17" s="53">
         <f t="shared" si="2"/>
         <v>45796</v>
       </c>
-      <c r="CL17" s="81">
+      <c r="CL17" s="53">
         <f t="shared" si="2"/>
         <v>45797</v>
       </c>
-      <c r="CM17" s="81">
+      <c r="CM17" s="53">
         <f t="shared" si="2"/>
         <v>45798</v>
       </c>
-      <c r="CN17" s="81">
+      <c r="CN17" s="53">
         <f t="shared" si="2"/>
         <v>45799</v>
       </c>
-      <c r="CO17" s="81">
+      <c r="CO17" s="53">
         <f t="shared" si="2"/>
         <v>45800</v>
       </c>
-      <c r="CP17" s="81">
+      <c r="CP17" s="53">
         <f t="shared" si="2"/>
         <v>45801</v>
       </c>
-      <c r="CQ17" s="81">
+      <c r="CQ17" s="53">
         <f t="shared" si="2"/>
         <v>45802</v>
       </c>
-      <c r="CR17" s="81">
+      <c r="CR17" s="53">
         <f t="shared" si="2"/>
         <v>45803</v>
       </c>
-      <c r="CS17" s="81">
+      <c r="CS17" s="53">
         <f t="shared" si="2"/>
         <v>45804</v>
       </c>
-      <c r="CT17" s="81">
+      <c r="CT17" s="53">
         <f t="shared" ref="CT17:DR17" si="3">CS17+1</f>
         <v>45805</v>
       </c>
-      <c r="CU17" s="81">
+      <c r="CU17" s="53">
         <f t="shared" si="3"/>
         <v>45806</v>
       </c>
-      <c r="CV17" s="81">
+      <c r="CV17" s="53">
         <f t="shared" si="3"/>
         <v>45807</v>
       </c>
-      <c r="CW17" s="81">
+      <c r="CW17" s="53">
         <f t="shared" si="3"/>
         <v>45808</v>
       </c>
-      <c r="CX17" s="81">
+      <c r="CX17" s="53">
         <f t="shared" si="3"/>
         <v>45809</v>
       </c>
-      <c r="CY17" s="81">
+      <c r="CY17" s="53">
         <f t="shared" si="3"/>
         <v>45810</v>
       </c>
-      <c r="CZ17" s="81">
+      <c r="CZ17" s="53">
         <f t="shared" si="3"/>
         <v>45811</v>
       </c>
-      <c r="DA17" s="81">
+      <c r="DA17" s="53">
         <f t="shared" si="3"/>
         <v>45812</v>
       </c>
-      <c r="DB17" s="81">
+      <c r="DB17" s="53">
         <f t="shared" si="3"/>
         <v>45813</v>
       </c>
-      <c r="DC17" s="81">
+      <c r="DC17" s="53">
         <f t="shared" si="3"/>
         <v>45814</v>
       </c>
-      <c r="DD17" s="81">
+      <c r="DD17" s="53">
         <f t="shared" si="3"/>
         <v>45815</v>
       </c>
-      <c r="DE17" s="81">
+      <c r="DE17" s="53">
         <f t="shared" si="3"/>
         <v>45816</v>
       </c>
-      <c r="DF17" s="81">
+      <c r="DF17" s="53">
         <f t="shared" si="3"/>
         <v>45817</v>
       </c>
-      <c r="DG17" s="81">
+      <c r="DG17" s="53">
         <f t="shared" si="3"/>
         <v>45818</v>
       </c>
-      <c r="DH17" s="81">
+      <c r="DH17" s="53">
         <f t="shared" si="3"/>
         <v>45819</v>
       </c>
-      <c r="DI17" s="81">
+      <c r="DI17" s="53">
         <f t="shared" si="3"/>
         <v>45820</v>
       </c>
-      <c r="DJ17" s="81">
+      <c r="DJ17" s="53">
         <f t="shared" si="3"/>
         <v>45821</v>
       </c>
-      <c r="DK17" s="81">
+      <c r="DK17" s="53">
         <f t="shared" si="3"/>
         <v>45822</v>
       </c>
-      <c r="DL17" s="81">
+      <c r="DL17" s="53">
         <f t="shared" si="3"/>
         <v>45823</v>
       </c>
-      <c r="DM17" s="81">
+      <c r="DM17" s="53">
         <f t="shared" si="3"/>
         <v>45824</v>
       </c>
-      <c r="DN17" s="81">
+      <c r="DN17" s="53">
         <f t="shared" si="3"/>
         <v>45825</v>
       </c>
-      <c r="DO17" s="81">
+      <c r="DO17" s="53">
         <f t="shared" si="3"/>
         <v>45826</v>
       </c>
-      <c r="DP17" s="81">
+      <c r="DP17" s="53">
         <f t="shared" si="3"/>
         <v>45827</v>
       </c>
-      <c r="DQ17" s="81">
+      <c r="DQ17" s="53">
         <f t="shared" si="3"/>
         <v>45828</v>
       </c>
-      <c r="DR17" s="81">
+      <c r="DR17" s="53">
         <f t="shared" si="3"/>
         <v>45829</v>
       </c>
-      <c r="DS17" s="81">
+      <c r="DS17" s="53">
         <f t="shared" ref="DS17:EH17" si="4">DR17+1</f>
         <v>45830</v>
       </c>
-      <c r="DT17" s="81">
+      <c r="DT17" s="53">
         <f t="shared" si="4"/>
         <v>45831</v>
       </c>
-      <c r="DU17" s="81">
+      <c r="DU17" s="53">
         <f t="shared" si="4"/>
         <v>45832</v>
       </c>
-      <c r="DV17" s="81">
+      <c r="DV17" s="53">
         <f t="shared" si="4"/>
         <v>45833</v>
       </c>
-      <c r="DW17" s="81">
+      <c r="DW17" s="53">
         <f t="shared" si="4"/>
         <v>45834</v>
       </c>
-      <c r="DX17" s="81">
+      <c r="DX17" s="53">
         <f t="shared" si="4"/>
         <v>45835</v>
       </c>
-      <c r="DY17" s="81">
+      <c r="DY17" s="53">
         <f t="shared" si="4"/>
         <v>45836</v>
       </c>
-      <c r="DZ17" s="81">
+      <c r="DZ17" s="53">
         <f t="shared" si="4"/>
         <v>45837</v>
       </c>
-      <c r="EA17" s="81">
+      <c r="EA17" s="53">
         <f t="shared" si="4"/>
         <v>45838</v>
       </c>
-      <c r="EB17" s="81">
+      <c r="EB17" s="53">
         <f t="shared" si="4"/>
         <v>45839</v>
       </c>
-      <c r="EC17" s="81">
+      <c r="EC17" s="53">
         <f t="shared" si="4"/>
         <v>45840</v>
       </c>
-      <c r="ED17" s="81">
+      <c r="ED17" s="53">
         <f t="shared" si="4"/>
         <v>45841</v>
       </c>
-      <c r="EE17" s="81">
+      <c r="EE17" s="53">
         <f t="shared" si="4"/>
         <v>45842</v>
       </c>
-      <c r="EF17" s="81">
+      <c r="EF17" s="53">
         <f t="shared" si="4"/>
         <v>45843</v>
       </c>
-      <c r="EG17" s="81">
+      <c r="EG17" s="53">
         <f t="shared" si="4"/>
         <v>45844</v>
       </c>
-      <c r="EH17" s="81">
+      <c r="EH17" s="53">
         <f t="shared" si="4"/>
         <v>45845</v>
       </c>
-      <c r="EI17" s="81">
+      <c r="EI17" s="53">
         <f t="shared" ref="EI17:ES17" si="5">EH17+1</f>
         <v>45846</v>
       </c>
-      <c r="EJ17" s="81">
+      <c r="EJ17" s="53">
         <f t="shared" si="5"/>
         <v>45847</v>
       </c>
-      <c r="EK17" s="81">
+      <c r="EK17" s="53">
         <f t="shared" si="5"/>
         <v>45848</v>
       </c>
-      <c r="EL17" s="81">
+      <c r="EL17" s="53">
         <f t="shared" si="5"/>
         <v>45849</v>
       </c>
-      <c r="EM17" s="81">
+      <c r="EM17" s="53">
         <f t="shared" si="5"/>
         <v>45850</v>
       </c>
-      <c r="EN17" s="81">
+      <c r="EN17" s="53">
         <f t="shared" si="5"/>
         <v>45851</v>
       </c>
-      <c r="EO17" s="81">
+      <c r="EO17" s="53">
         <f t="shared" si="5"/>
         <v>45852</v>
       </c>
-      <c r="EP17" s="81">
+      <c r="EP17" s="53">
         <f t="shared" si="5"/>
         <v>45853</v>
       </c>
-      <c r="EQ17" s="81">
+      <c r="EQ17" s="53">
         <f t="shared" si="5"/>
         <v>45854</v>
       </c>
-      <c r="ER17" s="81">
+      <c r="ER17" s="53">
         <f t="shared" si="5"/>
         <v>45855</v>
       </c>
-      <c r="ES17" s="81">
+      <c r="ES17" s="53">
         <f t="shared" si="5"/>
         <v>45856</v>
       </c>
     </row>
     <row r="18" spans="1:149" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A18" s="19"/>
-      <c r="B18" s="57">
+      <c r="B18" s="75">
         <v>1</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="61" t="str">
+      <c r="D18" s="65" t="str">
         <f>IF(C18="","-",IF(G21&lt;&gt;"","完成",IF(F21&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="71">
         <v>45716</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="71">
         <v>45717</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="65">
         <f>IF(G18="","-",G18-F18+1)</f>
         <v>2</v>
       </c>
@@ -7327,14 +7324,14 @@
       <c r="DO18" s="32"/>
     </row>
     <row r="19" spans="1:149" ht="10.050000000000001" customHeight="1">
-      <c r="B19" s="57"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="83"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="55"/>
       <c r="AW19" s="33"/>
       <c r="AX19" s="33"/>
       <c r="AY19" s="33"/>
@@ -7408,13 +7405,13 @@
       <c r="DO19" s="33"/>
     </row>
     <row r="20" spans="1:149" ht="6" customHeight="1">
-      <c r="B20" s="57"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="64"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -7528,19 +7525,19 @@
       <c r="DO20" s="34"/>
     </row>
     <row r="21" spans="1:149" ht="6" customHeight="1">
-      <c r="B21" s="57"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62" t="s">
+      <c r="B21" s="75"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="71">
         <v>45716</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="71">
         <v>45717</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="66">
         <f>IF(G21="","-",G21-F21+1)</f>
         <v>2</v>
       </c>
@@ -7617,15 +7614,15 @@
       <c r="DO21" s="33"/>
     </row>
     <row r="22" spans="1:149" ht="10.050000000000001" customHeight="1">
-      <c r="B22" s="57"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
       <c r="AW22" s="33"/>
       <c r="AX22" s="33"/>
       <c r="AY22" s="33"/>
@@ -7699,13 +7696,13 @@
       <c r="DO22" s="33"/>
     </row>
     <row r="23" spans="1:149" ht="6" customHeight="1">
-      <c r="B23" s="58"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="63"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -7820,26 +7817,26 @@
     </row>
     <row r="24" spans="1:149" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A24" s="19"/>
-      <c r="B24" s="57">
+      <c r="B24" s="75">
         <v>2</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="61" t="str">
+      <c r="D24" s="65" t="str">
         <f>IF(C24="","-",IF(G27&lt;&gt;"","完成",IF(F27&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="71">
         <v>45716</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="71">
         <v>45736</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24" s="65">
         <f>IF(G24="","-",G24-F24+1)</f>
         <v>21</v>
       </c>
@@ -7956,14 +7953,14 @@
       <c r="DO24" s="32"/>
     </row>
     <row r="25" spans="1:149" ht="10.050000000000001" customHeight="1">
-      <c r="B25" s="57"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="62"/>
-      <c r="J25" s="84"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="66"/>
+      <c r="J25" s="56"/>
       <c r="AW25" s="33"/>
       <c r="AX25" s="33"/>
       <c r="AY25" s="33"/>
@@ -8037,13 +8034,13 @@
       <c r="DO25" s="33"/>
     </row>
     <row r="26" spans="1:149" ht="6" customHeight="1">
-      <c r="B26" s="57"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="64"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
@@ -8157,19 +8154,19 @@
       <c r="DO26" s="34"/>
     </row>
     <row r="27" spans="1:149" ht="6" customHeight="1">
-      <c r="B27" s="57"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62" t="s">
+      <c r="B27" s="75"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="65">
+      <c r="F27" s="71">
         <v>45717</v>
       </c>
-      <c r="G27" s="66">
+      <c r="G27" s="69">
         <v>45735</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="66">
         <f>IF(G27="","-",G27-F27+1)</f>
         <v>19</v>
       </c>
@@ -8246,13 +8243,13 @@
       <c r="DO27" s="33"/>
     </row>
     <row r="28" spans="1:149" ht="10.050000000000001" customHeight="1">
-      <c r="B28" s="57"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="62"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="66"/>
       <c r="AW28" s="33"/>
       <c r="AX28" s="33"/>
       <c r="AY28" s="33"/>
@@ -8326,13 +8323,13 @@
       <c r="DO28" s="33"/>
     </row>
     <row r="29" spans="1:149" ht="6" customHeight="1">
-      <c r="B29" s="58"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="63"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
@@ -8447,26 +8444,26 @@
     </row>
     <row r="30" spans="1:149" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A30" s="19"/>
-      <c r="B30" s="57">
+      <c r="B30" s="75">
         <v>3</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="61" t="str">
+      <c r="D30" s="65" t="str">
         <f>IF(C30="","-",IF(G33&lt;&gt;"","完成",IF(F33&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="71">
         <v>45723</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="71">
         <v>45724</v>
       </c>
-      <c r="H30" s="61">
+      <c r="H30" s="65">
         <f>IF(G30="","-",G30-F30+1)</f>
         <v>2</v>
       </c>
@@ -8583,13 +8580,13 @@
       <c r="DO30" s="32"/>
     </row>
     <row r="31" spans="1:149" ht="10.050000000000001" customHeight="1">
-      <c r="B31" s="57"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="62"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="66"/>
       <c r="AW31" s="33"/>
       <c r="AX31" s="33"/>
       <c r="AY31" s="33"/>
@@ -8663,13 +8660,13 @@
       <c r="DO31" s="33"/>
     </row>
     <row r="32" spans="1:149" ht="6" customHeight="1">
-      <c r="B32" s="57"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="64"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="67"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
@@ -8783,19 +8780,19 @@
       <c r="DO32" s="34"/>
     </row>
     <row r="33" spans="1:119" ht="6" customHeight="1">
-      <c r="B33" s="57"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62" t="s">
+      <c r="B33" s="75"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="71">
         <v>45723</v>
       </c>
-      <c r="G33" s="69">
+      <c r="G33" s="73">
         <v>45724</v>
       </c>
-      <c r="H33" s="62">
+      <c r="H33" s="66">
         <f>IF(G33="","-",G33-F33+1)</f>
         <v>2</v>
       </c>
@@ -8872,13 +8869,13 @@
       <c r="DO33" s="33"/>
     </row>
     <row r="34" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B34" s="57"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="62"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="66"/>
       <c r="AW34" s="33"/>
       <c r="AX34" s="33"/>
       <c r="AY34" s="33"/>
@@ -8952,13 +8949,13 @@
       <c r="DO34" s="33"/>
     </row>
     <row r="35" spans="1:119" ht="6" customHeight="1">
-      <c r="B35" s="58"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="63"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="68"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
@@ -9073,26 +9070,26 @@
     </row>
     <row r="36" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A36" s="19"/>
-      <c r="B36" s="57">
+      <c r="B36" s="75">
         <v>4</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="61" t="str">
+      <c r="D36" s="65" t="str">
         <f>IF(C36="","-",IF(G39&lt;&gt;"","完成",IF(F39&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="71">
         <v>45730</v>
       </c>
-      <c r="G36" s="65">
+      <c r="G36" s="71">
         <v>45731</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H36" s="65">
         <f>IF(G36="","-",G36-F36+1)</f>
         <v>2</v>
       </c>
@@ -9209,13 +9206,13 @@
       <c r="DO36" s="32"/>
     </row>
     <row r="37" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B37" s="57"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="62"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="66"/>
       <c r="AW37" s="33"/>
       <c r="AX37" s="33"/>
       <c r="AY37" s="33"/>
@@ -9289,13 +9286,13 @@
       <c r="DO37" s="33"/>
     </row>
     <row r="38" spans="1:119" ht="6" customHeight="1">
-      <c r="B38" s="57"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="64"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
@@ -9409,19 +9406,19 @@
       <c r="DO38" s="34"/>
     </row>
     <row r="39" spans="1:119" ht="6" customHeight="1">
-      <c r="B39" s="57"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62" t="s">
+      <c r="B39" s="75"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="69">
         <v>45730</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="69">
         <v>45731</v>
       </c>
-      <c r="H39" s="62">
+      <c r="H39" s="66">
         <f>IF(G39="","-",G39-F39+1)</f>
         <v>2</v>
       </c>
@@ -9498,13 +9495,13 @@
       <c r="DO39" s="33"/>
     </row>
     <row r="40" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B40" s="57"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="62"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="66"/>
       <c r="AW40" s="33"/>
       <c r="AX40" s="33"/>
       <c r="AY40" s="33"/>
@@ -9578,13 +9575,13 @@
       <c r="DO40" s="33"/>
     </row>
     <row r="41" spans="1:119" ht="6" customHeight="1">
-      <c r="B41" s="58"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="63"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="68"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
@@ -9699,26 +9696,26 @@
     </row>
     <row r="42" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A42" s="19"/>
-      <c r="B42" s="57">
+      <c r="B42" s="75">
         <v>5</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="61" t="str">
+      <c r="D42" s="65" t="str">
         <f>IF(C42="","-",IF(G45&lt;&gt;"","完成",IF(F45&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E42" s="61" t="s">
+      <c r="E42" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="65">
+      <c r="F42" s="71">
         <v>45737</v>
       </c>
-      <c r="G42" s="65">
+      <c r="G42" s="71">
         <v>45749</v>
       </c>
-      <c r="H42" s="61">
+      <c r="H42" s="65">
         <f>IF(G42="","-",G42-F42+1)</f>
         <v>13</v>
       </c>
@@ -9835,13 +9832,13 @@
       <c r="DO42" s="32"/>
     </row>
     <row r="43" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B43" s="57"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="62"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="66"/>
       <c r="AW43" s="33"/>
       <c r="AX43" s="33"/>
       <c r="AY43" s="33"/>
@@ -9915,13 +9912,13 @@
       <c r="DO43" s="33"/>
     </row>
     <row r="44" spans="1:119" ht="6" customHeight="1">
-      <c r="B44" s="57"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="64"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="67"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
@@ -10035,19 +10032,19 @@
       <c r="DO44" s="34"/>
     </row>
     <row r="45" spans="1:119" ht="6" customHeight="1">
-      <c r="B45" s="57"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62" t="s">
+      <c r="B45" s="75"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="66">
+      <c r="F45" s="69">
         <v>45737</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="69">
         <v>45749</v>
       </c>
-      <c r="H45" s="62">
+      <c r="H45" s="66">
         <f>IF(G45="","-",G45-F45+1)</f>
         <v>13</v>
       </c>
@@ -10124,13 +10121,13 @@
       <c r="DO45" s="33"/>
     </row>
     <row r="46" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B46" s="57"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="62"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="66"/>
       <c r="AW46" s="33"/>
       <c r="AX46" s="33"/>
       <c r="AY46" s="33"/>
@@ -10204,13 +10201,13 @@
       <c r="DO46" s="33"/>
     </row>
     <row r="47" spans="1:119" ht="6" customHeight="1">
-      <c r="B47" s="58"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="63"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="68"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
@@ -10325,26 +10322,26 @@
     </row>
     <row r="48" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A48" s="19"/>
-      <c r="B48" s="57">
+      <c r="B48" s="75">
         <v>6</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="61" t="str">
+      <c r="D48" s="65" t="str">
         <f>IF(C48="","-",IF(G51&lt;&gt;"","完成",IF(F51&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E48" s="61" t="s">
+      <c r="E48" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="65">
+      <c r="F48" s="71">
         <v>45744</v>
       </c>
-      <c r="G48" s="65">
+      <c r="G48" s="71">
         <v>45773</v>
       </c>
-      <c r="H48" s="61">
+      <c r="H48" s="65">
         <f>IF(G48="","-",G48-F48+1)</f>
         <v>30</v>
       </c>
@@ -10461,13 +10458,13 @@
       <c r="DO48" s="32"/>
     </row>
     <row r="49" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B49" s="57"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="62"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="66"/>
       <c r="AW49" s="33"/>
       <c r="AX49" s="33"/>
       <c r="AY49" s="33"/>
@@ -10541,13 +10538,13 @@
       <c r="DO49" s="33"/>
     </row>
     <row r="50" spans="1:119" ht="6" customHeight="1">
-      <c r="B50" s="57"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="64"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="67"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
@@ -10661,19 +10658,19 @@
       <c r="DO50" s="34"/>
     </row>
     <row r="51" spans="1:119" ht="6" customHeight="1">
-      <c r="B51" s="57"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62" t="s">
+      <c r="B51" s="75"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="66">
+      <c r="F51" s="69">
         <v>45744</v>
       </c>
-      <c r="G51" s="66">
+      <c r="G51" s="69">
         <v>45772</v>
       </c>
-      <c r="H51" s="62">
+      <c r="H51" s="66">
         <f>IF(G51="","-",G51-F51+1)</f>
         <v>29</v>
       </c>
@@ -10750,13 +10747,13 @@
       <c r="DO51" s="33"/>
     </row>
     <row r="52" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B52" s="57"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="62"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="66"/>
       <c r="AW52" s="33"/>
       <c r="AX52" s="33"/>
       <c r="AY52" s="33"/>
@@ -10830,13 +10827,13 @@
       <c r="DO52" s="33"/>
     </row>
     <row r="53" spans="1:119" ht="6" customHeight="1">
-      <c r="B53" s="58"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="63"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="68"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
@@ -10951,26 +10948,26 @@
     </row>
     <row r="54" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A54" s="19"/>
-      <c r="B54" s="57">
+      <c r="B54" s="75">
         <v>7</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C54" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="61" t="str">
+      <c r="D54" s="65" t="str">
         <f>IF(C54="","-",IF(G57&lt;&gt;"","完成",IF(F57&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E54" s="61" t="s">
+      <c r="E54" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="65">
+      <c r="F54" s="71">
         <v>45723</v>
       </c>
-      <c r="G54" s="65">
+      <c r="G54" s="71">
         <v>45730</v>
       </c>
-      <c r="H54" s="61">
+      <c r="H54" s="65">
         <f>IF(G54="","-",G54-F54+1)</f>
         <v>8</v>
       </c>
@@ -11087,13 +11084,13 @@
       <c r="DO54" s="32"/>
     </row>
     <row r="55" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B55" s="57"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="62"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="66"/>
       <c r="AW55" s="33"/>
       <c r="AX55" s="33"/>
       <c r="AY55" s="33"/>
@@ -11167,13 +11164,13 @@
       <c r="DO55" s="33"/>
     </row>
     <row r="56" spans="1:119" ht="6" customHeight="1">
-      <c r="B56" s="57"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="64"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="67"/>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
@@ -11287,19 +11284,19 @@
       <c r="DO56" s="34"/>
     </row>
     <row r="57" spans="1:119" ht="6" customHeight="1">
-      <c r="B57" s="57"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62" t="s">
+      <c r="B57" s="75"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="65">
+      <c r="F57" s="71">
         <v>45725</v>
       </c>
-      <c r="G57" s="65">
+      <c r="G57" s="71">
         <v>45731</v>
       </c>
-      <c r="H57" s="62">
+      <c r="H57" s="66">
         <f>IF(G57="","-",G57-F57+1)</f>
         <v>7</v>
       </c>
@@ -11376,13 +11373,13 @@
       <c r="DO57" s="33"/>
     </row>
     <row r="58" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B58" s="57"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="62"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="66"/>
       <c r="AW58" s="33"/>
       <c r="AX58" s="33"/>
       <c r="AY58" s="33"/>
@@ -11456,13 +11453,13 @@
       <c r="DO58" s="33"/>
     </row>
     <row r="59" spans="1:119" ht="6" customHeight="1">
-      <c r="B59" s="58"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="63"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="68"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
@@ -11577,26 +11574,26 @@
     </row>
     <row r="60" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A60" s="19"/>
-      <c r="B60" s="57">
+      <c r="B60" s="75">
         <v>8</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="61" t="str">
+      <c r="D60" s="65" t="str">
         <f>IF(C60="","-",IF(G63&lt;&gt;"","完成",IF(F63&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E60" s="61" t="s">
+      <c r="E60" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="65">
+      <c r="F60" s="71">
         <v>45731</v>
       </c>
-      <c r="G60" s="65">
+      <c r="G60" s="71">
         <v>45738</v>
       </c>
-      <c r="H60" s="61">
+      <c r="H60" s="65">
         <f>IF(G60="","-",G60-F60+1)</f>
         <v>8</v>
       </c>
@@ -11713,13 +11710,13 @@
       <c r="DO60" s="32"/>
     </row>
     <row r="61" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B61" s="57"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="62"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="66"/>
       <c r="AW61" s="33"/>
       <c r="AX61" s="33"/>
       <c r="AY61" s="33"/>
@@ -11793,13 +11790,13 @@
       <c r="DO61" s="33"/>
     </row>
     <row r="62" spans="1:119" ht="6" customHeight="1">
-      <c r="B62" s="57"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="64"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="67"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
@@ -11913,19 +11910,19 @@
       <c r="DO62" s="34"/>
     </row>
     <row r="63" spans="1:119" ht="6" customHeight="1">
-      <c r="B63" s="57"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62" t="s">
+      <c r="B63" s="75"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="66">
+      <c r="F63" s="69">
         <v>45731</v>
       </c>
-      <c r="G63" s="66">
+      <c r="G63" s="69">
         <v>45739</v>
       </c>
-      <c r="H63" s="62">
+      <c r="H63" s="66">
         <f>IF(G63="","-",G63-F63+1)</f>
         <v>9</v>
       </c>
@@ -12002,13 +11999,13 @@
       <c r="DO63" s="33"/>
     </row>
     <row r="64" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B64" s="57"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="62"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="66"/>
       <c r="AW64" s="33"/>
       <c r="AX64" s="33"/>
       <c r="AY64" s="33"/>
@@ -12082,13 +12079,13 @@
       <c r="DO64" s="33"/>
     </row>
     <row r="65" spans="1:119" ht="6" customHeight="1">
-      <c r="B65" s="58"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="63"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="68"/>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
@@ -12203,26 +12200,26 @@
     </row>
     <row r="66" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A66" s="19"/>
-      <c r="B66" s="57">
+      <c r="B66" s="75">
         <v>9</v>
       </c>
-      <c r="C66" s="61" t="s">
+      <c r="C66" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="61" t="str">
+      <c r="D66" s="65" t="str">
         <f>IF(C66="","-",IF(G69&lt;&gt;"","完成",IF(F69&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E66" s="61" t="s">
+      <c r="E66" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="66">
+      <c r="F66" s="69">
         <v>45737</v>
       </c>
-      <c r="G66" s="66">
+      <c r="G66" s="69">
         <v>45782</v>
       </c>
-      <c r="H66" s="61">
+      <c r="H66" s="65">
         <f>IF(G66="","-",G66-F66+1)</f>
         <v>46</v>
       </c>
@@ -12339,13 +12336,13 @@
       <c r="DO66" s="32"/>
     </row>
     <row r="67" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B67" s="57"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="62"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="66"/>
       <c r="AW67" s="33"/>
       <c r="AX67" s="33"/>
       <c r="AY67" s="33"/>
@@ -12419,13 +12416,13 @@
       <c r="DO67" s="33"/>
     </row>
     <row r="68" spans="1:119" ht="6" customHeight="1">
-      <c r="B68" s="57"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="64"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="67"/>
       <c r="I68" s="24"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
@@ -12539,19 +12536,19 @@
       <c r="DO68" s="34"/>
     </row>
     <row r="69" spans="1:119" ht="6" customHeight="1">
-      <c r="B69" s="57"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62" t="s">
+      <c r="B69" s="75"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="65">
+      <c r="F69" s="71">
         <v>45738</v>
       </c>
-      <c r="G69" s="65">
+      <c r="G69" s="71">
         <v>45782</v>
       </c>
-      <c r="H69" s="62">
+      <c r="H69" s="66">
         <f>IF(G69="","-",G69-F69+1)</f>
         <v>45</v>
       </c>
@@ -12628,13 +12625,13 @@
       <c r="DO69" s="33"/>
     </row>
     <row r="70" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B70" s="57"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="62"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="66"/>
       <c r="AW70" s="33"/>
       <c r="AX70" s="33"/>
       <c r="AY70" s="33"/>
@@ -12708,13 +12705,13 @@
       <c r="DO70" s="33"/>
     </row>
     <row r="71" spans="1:119" ht="6" customHeight="1">
-      <c r="B71" s="58"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="63"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="68"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
@@ -12829,26 +12826,26 @@
     </row>
     <row r="72" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A72" s="19"/>
-      <c r="B72" s="57">
+      <c r="B72" s="75">
         <v>10</v>
       </c>
-      <c r="C72" s="61" t="s">
+      <c r="C72" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="61" t="str">
+      <c r="D72" s="65" t="str">
         <f>IF(C72="","-",IF(G75&lt;&gt;"","完成",IF(F75&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E72" s="61" t="s">
+      <c r="E72" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="65">
+      <c r="F72" s="71">
         <v>45782</v>
       </c>
-      <c r="G72" s="65">
+      <c r="G72" s="71">
         <v>45787</v>
       </c>
-      <c r="H72" s="61">
+      <c r="H72" s="65">
         <f>IF(G72="","-",G72-F72+1)</f>
         <v>6</v>
       </c>
@@ -12965,13 +12962,13 @@
       <c r="DO72" s="32"/>
     </row>
     <row r="73" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B73" s="57"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="62"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="66"/>
       <c r="AW73" s="33"/>
       <c r="AX73" s="7"/>
       <c r="AY73" s="33"/>
@@ -13045,13 +13042,13 @@
       <c r="DO73" s="33"/>
     </row>
     <row r="74" spans="1:119" ht="6" customHeight="1">
-      <c r="B74" s="57"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="64"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="67"/>
       <c r="I74" s="24"/>
       <c r="J74" s="24"/>
       <c r="K74" s="24"/>
@@ -13165,19 +13162,19 @@
       <c r="DO74" s="34"/>
     </row>
     <row r="75" spans="1:119" ht="6" customHeight="1">
-      <c r="B75" s="57"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62" t="s">
+      <c r="B75" s="75"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="66">
+      <c r="F75" s="69">
         <v>45783</v>
       </c>
-      <c r="G75" s="66">
+      <c r="G75" s="69">
         <v>45788</v>
       </c>
-      <c r="H75" s="62">
+      <c r="H75" s="66">
         <f>IF(G75="","-",G75-F75+1)</f>
         <v>6</v>
       </c>
@@ -13254,13 +13251,13 @@
       <c r="DO75" s="33"/>
     </row>
     <row r="76" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B76" s="57"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="62"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="66"/>
       <c r="AW76" s="33"/>
       <c r="AX76" s="7"/>
       <c r="AY76" s="33"/>
@@ -13334,13 +13331,13 @@
       <c r="DO76" s="33"/>
     </row>
     <row r="77" spans="1:119" ht="6" customHeight="1">
-      <c r="B77" s="58"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="63"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="68"/>
       <c r="I77" s="25"/>
       <c r="J77" s="25"/>
       <c r="K77" s="25"/>
@@ -13455,26 +13452,26 @@
     </row>
     <row r="78" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A78" s="19"/>
-      <c r="B78" s="57">
+      <c r="B78" s="75">
         <v>11</v>
       </c>
-      <c r="C78" s="61" t="s">
+      <c r="C78" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="61" t="str">
+      <c r="D78" s="65" t="str">
         <f>IF(C78="","-",IF(G81&lt;&gt;"","完成",IF(F81&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E78" s="61" t="s">
+      <c r="E78" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="65">
+      <c r="F78" s="71">
         <v>45782</v>
       </c>
-      <c r="G78" s="65">
+      <c r="G78" s="71">
         <v>45788</v>
       </c>
-      <c r="H78" s="61">
+      <c r="H78" s="65">
         <f>IF(G78="","-",G78-F78+1)</f>
         <v>7</v>
       </c>
@@ -13591,13 +13588,13 @@
       <c r="DO78" s="32"/>
     </row>
     <row r="79" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B79" s="57"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="62"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="66"/>
       <c r="AW79" s="33"/>
       <c r="AX79" s="7"/>
       <c r="AY79" s="33"/>
@@ -13671,13 +13668,13 @@
       <c r="DO79" s="33"/>
     </row>
     <row r="80" spans="1:119" ht="6" customHeight="1">
-      <c r="B80" s="57"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="64"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="67"/>
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="24"/>
@@ -13791,19 +13788,19 @@
       <c r="DO80" s="34"/>
     </row>
     <row r="81" spans="1:119" ht="6" customHeight="1">
-      <c r="B81" s="57"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62" t="s">
+      <c r="B81" s="75"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="66">
+      <c r="F81" s="69">
         <v>45783</v>
       </c>
-      <c r="G81" s="66">
+      <c r="G81" s="69">
         <v>45788</v>
       </c>
-      <c r="H81" s="62">
+      <c r="H81" s="66">
         <f>IF(G81="","-",G81-F81+1)</f>
         <v>6</v>
       </c>
@@ -13880,13 +13877,13 @@
       <c r="DO81" s="33"/>
     </row>
     <row r="82" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B82" s="57"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="62"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="66"/>
       <c r="AW82" s="33"/>
       <c r="AX82" s="7"/>
       <c r="AY82" s="33"/>
@@ -13960,13 +13957,13 @@
       <c r="DO82" s="33"/>
     </row>
     <row r="83" spans="1:119" ht="6" customHeight="1">
-      <c r="B83" s="58"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="63"/>
+      <c r="B83" s="76"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="68"/>
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
       <c r="K83" s="25"/>
@@ -14081,26 +14078,26 @@
     </row>
     <row r="84" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A84" s="19"/>
-      <c r="B84" s="57">
+      <c r="B84" s="75">
         <v>12</v>
       </c>
-      <c r="C84" s="61" t="s">
+      <c r="C84" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="61" t="str">
+      <c r="D84" s="65" t="str">
         <f>IF(C84="","-",IF(G87&lt;&gt;"","完成",IF(F87&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E84" s="61" t="s">
+      <c r="E84" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F84" s="65">
+      <c r="F84" s="71">
         <v>45787</v>
       </c>
-      <c r="G84" s="65">
+      <c r="G84" s="71">
         <v>45807</v>
       </c>
-      <c r="H84" s="61">
+      <c r="H84" s="65">
         <f>IF(G84="","-",G84-F84+1)</f>
         <v>21</v>
       </c>
@@ -14217,13 +14214,13 @@
       <c r="DO84" s="32"/>
     </row>
     <row r="85" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B85" s="57"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="62"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="66"/>
       <c r="AW85" s="33"/>
       <c r="AX85" s="7"/>
       <c r="AY85" s="33"/>
@@ -14297,13 +14294,13 @@
       <c r="DO85" s="33"/>
     </row>
     <row r="86" spans="1:119" ht="6" customHeight="1">
-      <c r="B86" s="57"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="64"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="67"/>
       <c r="I86" s="24"/>
       <c r="J86" s="24"/>
       <c r="K86" s="24"/>
@@ -14417,19 +14414,19 @@
       <c r="DO86" s="34"/>
     </row>
     <row r="87" spans="1:119" ht="6" customHeight="1">
-      <c r="B87" s="57"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62" t="s">
+      <c r="B87" s="75"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="66">
+      <c r="F87" s="69">
         <v>45787</v>
       </c>
-      <c r="G87" s="66">
+      <c r="G87" s="69">
         <v>45807</v>
       </c>
-      <c r="H87" s="62">
+      <c r="H87" s="66">
         <f>IF(G87="","-",G87-F87+1)</f>
         <v>21</v>
       </c>
@@ -14506,13 +14503,13 @@
       <c r="DO87" s="33"/>
     </row>
     <row r="88" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B88" s="57"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="62"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="66"/>
       <c r="AW88" s="33"/>
       <c r="AX88" s="7"/>
       <c r="AY88" s="33"/>
@@ -14586,13 +14583,13 @@
       <c r="DO88" s="33"/>
     </row>
     <row r="89" spans="1:119" ht="6" customHeight="1">
-      <c r="B89" s="58"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="63"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="68"/>
       <c r="I89" s="25"/>
       <c r="J89" s="25"/>
       <c r="K89" s="25"/>
@@ -14707,26 +14704,26 @@
     </row>
     <row r="90" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A90" s="19"/>
-      <c r="B90" s="57">
+      <c r="B90" s="75">
         <v>13</v>
       </c>
-      <c r="C90" s="61" t="s">
+      <c r="C90" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="61" t="str">
+      <c r="D90" s="65" t="str">
         <f>IF(C90="","-",IF(G93&lt;&gt;"","完成",IF(F93&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E90" s="61" t="s">
+      <c r="E90" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="65">
+      <c r="F90" s="71">
         <v>45789</v>
       </c>
-      <c r="G90" s="65">
+      <c r="G90" s="71">
         <v>45807</v>
       </c>
-      <c r="H90" s="61">
+      <c r="H90" s="65">
         <f>IF(G90="","-",G90-F90+1)</f>
         <v>19</v>
       </c>
@@ -14843,13 +14840,13 @@
       <c r="DO90" s="32"/>
     </row>
     <row r="91" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B91" s="57"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="62"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="66"/>
       <c r="AW91" s="33"/>
       <c r="AX91" s="7"/>
       <c r="AY91" s="33"/>
@@ -14923,13 +14920,13 @@
       <c r="DO91" s="33"/>
     </row>
     <row r="92" spans="1:119" ht="6" customHeight="1">
-      <c r="B92" s="57"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="64"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="67"/>
       <c r="I92" s="24"/>
       <c r="J92" s="24"/>
       <c r="K92" s="24"/>
@@ -15043,19 +15040,19 @@
       <c r="DO92" s="34"/>
     </row>
     <row r="93" spans="1:119" ht="6" customHeight="1">
-      <c r="B93" s="57"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62" t="s">
+      <c r="B93" s="75"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="66">
+      <c r="F93" s="69">
         <v>45790</v>
       </c>
-      <c r="G93" s="66">
+      <c r="G93" s="69">
         <v>45807</v>
       </c>
-      <c r="H93" s="62">
+      <c r="H93" s="66">
         <f>IF(G93="","-",G93-F93+1)</f>
         <v>18</v>
       </c>
@@ -15132,13 +15129,13 @@
       <c r="DO93" s="33"/>
     </row>
     <row r="94" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B94" s="57"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="62"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="66"/>
       <c r="AW94" s="33"/>
       <c r="AX94" s="7"/>
       <c r="AY94" s="33"/>
@@ -15212,13 +15209,13 @@
       <c r="DO94" s="33"/>
     </row>
     <row r="95" spans="1:119" ht="6" customHeight="1">
-      <c r="B95" s="58"/>
-      <c r="C95" s="63"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="68"/>
-      <c r="H95" s="63"/>
+      <c r="B95" s="76"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="68"/>
       <c r="I95" s="25"/>
       <c r="J95" s="25"/>
       <c r="K95" s="25"/>
@@ -15333,26 +15330,26 @@
     </row>
     <row r="96" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A96" s="19"/>
-      <c r="B96" s="57">
+      <c r="B96" s="75">
         <v>14</v>
       </c>
-      <c r="C96" s="61" t="s">
+      <c r="C96" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="61" t="str">
+      <c r="D96" s="65" t="str">
         <f>IF(C96="","-",IF(G99&lt;&gt;"","完成",IF(F99&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E96" s="61" t="s">
+      <c r="E96" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="65">
+      <c r="F96" s="71">
         <v>45787</v>
       </c>
-      <c r="G96" s="65">
+      <c r="G96" s="71">
         <v>45807</v>
       </c>
-      <c r="H96" s="61">
+      <c r="H96" s="65">
         <f>IF(G96="","-",G96-F96+1)</f>
         <v>21</v>
       </c>
@@ -15469,13 +15466,13 @@
       <c r="DO96" s="32"/>
     </row>
     <row r="97" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B97" s="57"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="62"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="69"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="66"/>
       <c r="AW97" s="33"/>
       <c r="AX97" s="7"/>
       <c r="AY97" s="33"/>
@@ -15549,13 +15546,13 @@
       <c r="DO97" s="33"/>
     </row>
     <row r="98" spans="1:119" ht="6" customHeight="1">
-      <c r="B98" s="57"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="64"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="67"/>
       <c r="I98" s="24"/>
       <c r="J98" s="24"/>
       <c r="K98" s="24"/>
@@ -15669,19 +15666,19 @@
       <c r="DO98" s="34"/>
     </row>
     <row r="99" spans="1:119" ht="6" customHeight="1">
-      <c r="B99" s="57"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62" t="s">
+      <c r="B99" s="75"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="66">
+      <c r="F99" s="69">
         <v>45788</v>
       </c>
-      <c r="G99" s="66">
+      <c r="G99" s="69">
         <v>45805</v>
       </c>
-      <c r="H99" s="62">
+      <c r="H99" s="66">
         <f>IF(G99="","-",G99-F99+1)</f>
         <v>18</v>
       </c>
@@ -15758,13 +15755,13 @@
       <c r="DO99" s="33"/>
     </row>
     <row r="100" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B100" s="57"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="62"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="62"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="69"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="66"/>
       <c r="AW100" s="33"/>
       <c r="AX100" s="7"/>
       <c r="AY100" s="33"/>
@@ -15838,13 +15835,13 @@
       <c r="DO100" s="33"/>
     </row>
     <row r="101" spans="1:119" ht="6" customHeight="1">
-      <c r="B101" s="58"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="68"/>
-      <c r="H101" s="63"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="68"/>
       <c r="I101" s="25"/>
       <c r="J101" s="25"/>
       <c r="K101" s="25"/>
@@ -15959,26 +15956,26 @@
     </row>
     <row r="102" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A102" s="19"/>
-      <c r="B102" s="57">
+      <c r="B102" s="75">
         <v>15</v>
       </c>
-      <c r="C102" s="61" t="s">
+      <c r="C102" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="61" t="str">
+      <c r="D102" s="65" t="str">
         <f>IF(C102="","-",IF(G105&lt;&gt;"","完成",IF(F105&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E102" s="61" t="s">
+      <c r="E102" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F102" s="65">
+      <c r="F102" s="71">
         <v>45737</v>
       </c>
-      <c r="G102" s="65">
+      <c r="G102" s="71">
         <v>45738</v>
       </c>
-      <c r="H102" s="61">
+      <c r="H102" s="65">
         <f>IF(G102="","-",G102-F102+1)</f>
         <v>2</v>
       </c>
@@ -16095,13 +16092,13 @@
       <c r="DO102" s="32"/>
     </row>
     <row r="103" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B103" s="57"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="62"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="66"/>
       <c r="AW103" s="33"/>
       <c r="AX103" s="7"/>
       <c r="AY103" s="33"/>
@@ -16175,13 +16172,13 @@
       <c r="DO103" s="33"/>
     </row>
     <row r="104" spans="1:119" ht="6" customHeight="1">
-      <c r="B104" s="57"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="64"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="72"/>
+      <c r="H104" s="67"/>
       <c r="I104" s="24"/>
       <c r="J104" s="24"/>
       <c r="K104" s="24"/>
@@ -16295,19 +16292,19 @@
       <c r="DO104" s="34"/>
     </row>
     <row r="105" spans="1:119" ht="6" customHeight="1">
-      <c r="B105" s="57"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62" t="s">
+      <c r="B105" s="75"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F105" s="66">
+      <c r="F105" s="69">
         <v>45737</v>
       </c>
-      <c r="G105" s="66">
+      <c r="G105" s="69">
         <v>45738</v>
       </c>
-      <c r="H105" s="62">
+      <c r="H105" s="66">
         <f>IF(G105="","-",G105-F105+1)</f>
         <v>2</v>
       </c>
@@ -16384,13 +16381,13 @@
       <c r="DO105" s="33"/>
     </row>
     <row r="106" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B106" s="57"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="62"/>
+      <c r="B106" s="75"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="69"/>
+      <c r="H106" s="66"/>
       <c r="AW106" s="33"/>
       <c r="AX106" s="7"/>
       <c r="AY106" s="33"/>
@@ -16464,13 +16461,13 @@
       <c r="DO106" s="33"/>
     </row>
     <row r="107" spans="1:119" ht="6" customHeight="1">
-      <c r="B107" s="58"/>
-      <c r="C107" s="63"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="68"/>
-      <c r="H107" s="63"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="68"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="70"/>
+      <c r="H107" s="68"/>
       <c r="I107" s="25"/>
       <c r="J107" s="25"/>
       <c r="K107" s="25"/>
@@ -16585,26 +16582,26 @@
     </row>
     <row r="108" spans="1:119" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A108" s="19"/>
-      <c r="B108" s="57">
+      <c r="B108" s="75">
         <v>16</v>
       </c>
-      <c r="C108" s="61" t="s">
+      <c r="C108" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D108" s="61" t="str">
+      <c r="D108" s="65" t="str">
         <f>IF(C108="","-",IF(G111&lt;&gt;"","完成",IF(F111&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E108" s="61" t="s">
+      <c r="E108" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F108" s="65">
+      <c r="F108" s="71">
         <v>45765</v>
       </c>
-      <c r="G108" s="65">
+      <c r="G108" s="71">
         <v>45782</v>
       </c>
-      <c r="H108" s="61">
+      <c r="H108" s="65">
         <f>IF(G108="","-",G108-F108+1)</f>
         <v>18</v>
       </c>
@@ -16721,13 +16718,13 @@
       <c r="DO108" s="32"/>
     </row>
     <row r="109" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B109" s="57"/>
-      <c r="C109" s="62"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="62"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="66"/>
-      <c r="H109" s="62"/>
+      <c r="B109" s="75"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="69"/>
+      <c r="H109" s="66"/>
       <c r="AW109" s="33"/>
       <c r="AX109" s="7"/>
       <c r="AY109" s="33"/>
@@ -16801,13 +16798,13 @@
       <c r="DO109" s="33"/>
     </row>
     <row r="110" spans="1:119" ht="6" customHeight="1">
-      <c r="B110" s="57"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="64"/>
+      <c r="B110" s="75"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="72"/>
+      <c r="H110" s="67"/>
       <c r="I110" s="24"/>
       <c r="J110" s="24"/>
       <c r="K110" s="24"/>
@@ -16921,19 +16918,19 @@
       <c r="DO110" s="34"/>
     </row>
     <row r="111" spans="1:119" ht="6" customHeight="1">
-      <c r="B111" s="57"/>
-      <c r="C111" s="62"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62" t="s">
+      <c r="B111" s="75"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F111" s="66">
+      <c r="F111" s="69">
         <v>45767</v>
       </c>
-      <c r="G111" s="66">
+      <c r="G111" s="69">
         <v>45782</v>
       </c>
-      <c r="H111" s="62">
+      <c r="H111" s="66">
         <f>IF(G111="","-",G111-F111+1)</f>
         <v>16</v>
       </c>
@@ -17010,13 +17007,13 @@
       <c r="DO111" s="33"/>
     </row>
     <row r="112" spans="1:119" ht="10.050000000000001" customHeight="1">
-      <c r="B112" s="57"/>
-      <c r="C112" s="62"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="62"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="69"/>
+      <c r="H112" s="66"/>
       <c r="AW112" s="33"/>
       <c r="AX112" s="7"/>
       <c r="AY112" s="33"/>
@@ -17090,13 +17087,13 @@
       <c r="DO112" s="33"/>
     </row>
     <row r="113" spans="1:139" ht="6" customHeight="1">
-      <c r="B113" s="58"/>
-      <c r="C113" s="63"/>
-      <c r="D113" s="63"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="68"/>
-      <c r="H113" s="63"/>
+      <c r="B113" s="76"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="70"/>
+      <c r="H113" s="68"/>
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
       <c r="K113" s="25"/>
@@ -17211,26 +17208,26 @@
     </row>
     <row r="114" spans="1:139" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A114" s="19"/>
-      <c r="B114" s="57">
+      <c r="B114" s="75">
         <v>17</v>
       </c>
-      <c r="C114" s="61" t="s">
+      <c r="C114" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D114" s="61" t="str">
+      <c r="D114" s="65" t="str">
         <f>IF(C114="","-",IF(G117&lt;&gt;"","完成",IF(F117&lt;&gt;"","进行中","未开始")))</f>
         <v>完成</v>
       </c>
-      <c r="E114" s="61" t="s">
+      <c r="E114" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F114" s="65">
+      <c r="F114" s="71">
         <v>45787</v>
       </c>
-      <c r="G114" s="65">
+      <c r="G114" s="71">
         <v>45441</v>
       </c>
-      <c r="H114" s="61">
+      <c r="H114" s="65">
         <f>IF(G114="","-",G114-F114+1)</f>
         <v>-345</v>
       </c>
@@ -17347,13 +17344,13 @@
       <c r="DO114" s="32"/>
     </row>
     <row r="115" spans="1:139" ht="10.050000000000001" customHeight="1">
-      <c r="B115" s="57"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="62"/>
+      <c r="B115" s="75"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="66"/>
       <c r="AW115" s="33"/>
       <c r="AX115" s="7"/>
       <c r="AY115" s="33"/>
@@ -17427,13 +17424,13 @@
       <c r="DO115" s="33"/>
     </row>
     <row r="116" spans="1:139" ht="6" customHeight="1">
-      <c r="B116" s="57"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="64"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="67"/>
-      <c r="H116" s="64"/>
+      <c r="B116" s="75"/>
+      <c r="C116" s="66"/>
+      <c r="D116" s="66"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="72"/>
+      <c r="H116" s="67"/>
       <c r="I116" s="24"/>
       <c r="J116" s="24"/>
       <c r="K116" s="24"/>
@@ -17547,19 +17544,19 @@
       <c r="DO116" s="34"/>
     </row>
     <row r="117" spans="1:139" ht="6" customHeight="1">
-      <c r="B117" s="57"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="62"/>
-      <c r="E117" s="62" t="s">
+      <c r="B117" s="75"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F117" s="66">
+      <c r="F117" s="69">
         <v>45788</v>
       </c>
-      <c r="G117" s="66">
+      <c r="G117" s="69">
         <v>45806</v>
       </c>
-      <c r="H117" s="62">
+      <c r="H117" s="66">
         <f>IF(G117="","-",G117-F117+1)</f>
         <v>19</v>
       </c>
@@ -17636,13 +17633,13 @@
       <c r="DO117" s="33"/>
     </row>
     <row r="118" spans="1:139" ht="10.050000000000001" customHeight="1">
-      <c r="B118" s="57"/>
-      <c r="C118" s="62"/>
-      <c r="D118" s="62"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="66"/>
-      <c r="G118" s="66"/>
-      <c r="H118" s="62"/>
+      <c r="B118" s="75"/>
+      <c r="C118" s="66"/>
+      <c r="D118" s="66"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="69"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="66"/>
       <c r="AW118" s="33"/>
       <c r="AX118" s="7"/>
       <c r="AY118" s="33"/>
@@ -17716,13 +17713,13 @@
       <c r="DO118" s="33"/>
     </row>
     <row r="119" spans="1:139" ht="6" customHeight="1">
-      <c r="B119" s="58"/>
-      <c r="C119" s="63"/>
-      <c r="D119" s="63"/>
-      <c r="E119" s="63"/>
-      <c r="F119" s="68"/>
-      <c r="G119" s="68"/>
-      <c r="H119" s="63"/>
+      <c r="B119" s="76"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="70"/>
+      <c r="G119" s="70"/>
+      <c r="H119" s="68"/>
       <c r="I119" s="25"/>
       <c r="J119" s="25"/>
       <c r="K119" s="25"/>
@@ -17837,26 +17834,26 @@
     </row>
     <row r="120" spans="1:139" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A120" s="19"/>
-      <c r="B120" s="57">
+      <c r="B120" s="75">
         <v>18</v>
       </c>
-      <c r="C120" s="61" t="s">
+      <c r="C120" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D120" s="61" t="str">
+      <c r="D120" s="65" t="str">
         <f>IF(C120="","-",IF(G123&lt;&gt;"","完成",IF(F123&lt;&gt;"","进行中","未开始")))</f>
-        <v>进行中</v>
-      </c>
-      <c r="E120" s="61" t="s">
+        <v>完成</v>
+      </c>
+      <c r="E120" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F120" s="65">
+      <c r="F120" s="71">
         <v>45807</v>
       </c>
-      <c r="G120" s="65">
+      <c r="G120" s="71">
         <v>45810</v>
       </c>
-      <c r="H120" s="61">
+      <c r="H120" s="65">
         <f>IF(G120="","-",G120-F120+1)</f>
         <v>4</v>
       </c>
@@ -17973,13 +17970,13 @@
       <c r="DO120" s="32"/>
     </row>
     <row r="121" spans="1:139" ht="10.050000000000001" customHeight="1">
-      <c r="B121" s="57"/>
-      <c r="C121" s="62"/>
-      <c r="D121" s="62"/>
-      <c r="E121" s="62"/>
-      <c r="F121" s="66"/>
-      <c r="G121" s="66"/>
-      <c r="H121" s="62"/>
+      <c r="B121" s="75"/>
+      <c r="C121" s="66"/>
+      <c r="D121" s="66"/>
+      <c r="E121" s="66"/>
+      <c r="F121" s="69"/>
+      <c r="G121" s="69"/>
+      <c r="H121" s="66"/>
       <c r="AW121" s="33"/>
       <c r="AX121" s="7"/>
       <c r="AY121" s="33"/>
@@ -18053,13 +18050,13 @@
       <c r="DO121" s="33"/>
     </row>
     <row r="122" spans="1:139" ht="6" customHeight="1">
-      <c r="B122" s="57"/>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="64"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="64"/>
+      <c r="B122" s="75"/>
+      <c r="C122" s="66"/>
+      <c r="D122" s="66"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="67"/>
       <c r="I122" s="24"/>
       <c r="J122" s="24"/>
       <c r="K122" s="24"/>
@@ -18173,19 +18170,21 @@
       <c r="DO122" s="34"/>
     </row>
     <row r="123" spans="1:139" ht="6" customHeight="1">
-      <c r="B123" s="57"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62" t="s">
+      <c r="B123" s="75"/>
+      <c r="C123" s="66"/>
+      <c r="D123" s="66"/>
+      <c r="E123" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F123" s="66">
+      <c r="F123" s="69">
         <v>45807</v>
       </c>
-      <c r="G123" s="66"/>
-      <c r="H123" s="62" t="str">
+      <c r="G123" s="69">
+        <v>45813</v>
+      </c>
+      <c r="H123" s="66">
         <f>IF(G123="","-",G123-F123+1)</f>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="AW123" s="33"/>
       <c r="AX123" s="33"/>
@@ -18260,13 +18259,13 @@
       <c r="DO123" s="33"/>
     </row>
     <row r="124" spans="1:139" ht="10.050000000000001" customHeight="1">
-      <c r="B124" s="57"/>
-      <c r="C124" s="62"/>
-      <c r="D124" s="62"/>
-      <c r="E124" s="62"/>
-      <c r="F124" s="66"/>
-      <c r="G124" s="66"/>
-      <c r="H124" s="62"/>
+      <c r="B124" s="75"/>
+      <c r="C124" s="66"/>
+      <c r="D124" s="66"/>
+      <c r="E124" s="66"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="66"/>
       <c r="AW124" s="33"/>
       <c r="AX124" s="33"/>
       <c r="AY124" s="33"/>
@@ -18340,13 +18339,13 @@
       <c r="DO124" s="33"/>
     </row>
     <row r="125" spans="1:139" ht="6" customHeight="1">
-      <c r="B125" s="58"/>
-      <c r="C125" s="63"/>
-      <c r="D125" s="63"/>
-      <c r="E125" s="63"/>
-      <c r="F125" s="68"/>
-      <c r="G125" s="68"/>
-      <c r="H125" s="63"/>
+      <c r="B125" s="76"/>
+      <c r="C125" s="68"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="68"/>
+      <c r="F125" s="70"/>
+      <c r="G125" s="70"/>
+      <c r="H125" s="68"/>
       <c r="I125" s="25"/>
       <c r="J125" s="25"/>
       <c r="K125" s="25"/>
@@ -18461,26 +18460,26 @@
     </row>
     <row r="126" spans="1:139" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A126" s="19"/>
-      <c r="B126" s="57">
+      <c r="B126" s="75">
         <v>19</v>
       </c>
-      <c r="C126" s="61" t="s">
+      <c r="C126" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D126" s="61" t="str">
+      <c r="D126" s="65" t="str">
         <f>IF(C126="","-",IF(G129&lt;&gt;"","完成",IF(F129&lt;&gt;"","进行中","未开始")))</f>
-        <v>进行中</v>
-      </c>
-      <c r="E126" s="61" t="s">
+        <v>完成</v>
+      </c>
+      <c r="E126" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F126" s="65">
+      <c r="F126" s="71">
         <v>45805</v>
       </c>
-      <c r="G126" s="65">
+      <c r="G126" s="71">
         <v>45810</v>
       </c>
-      <c r="H126" s="61">
+      <c r="H126" s="65">
         <f>IF(G126="","-",G126-F126+1)</f>
         <v>6</v>
       </c>
@@ -18617,13 +18616,13 @@
       <c r="EI126" s="23"/>
     </row>
     <row r="127" spans="1:139" ht="10.050000000000001" customHeight="1">
-      <c r="B127" s="57"/>
-      <c r="C127" s="62"/>
-      <c r="D127" s="62"/>
-      <c r="E127" s="62"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="62"/>
+      <c r="B127" s="75"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="66"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="69"/>
+      <c r="G127" s="69"/>
+      <c r="H127" s="66"/>
       <c r="AX127" s="7"/>
       <c r="AY127" s="7"/>
       <c r="AZ127" s="7"/>
@@ -18716,13 +18715,13 @@
       <c r="EI127" s="7"/>
     </row>
     <row r="128" spans="1:139" ht="6" customHeight="1">
-      <c r="B128" s="57"/>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="64"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="64"/>
+      <c r="B128" s="75"/>
+      <c r="C128" s="66"/>
+      <c r="D128" s="66"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="72"/>
+      <c r="H128" s="67"/>
       <c r="I128" s="24"/>
       <c r="J128" s="24"/>
       <c r="K128" s="24"/>
@@ -18856,19 +18855,21 @@
       <c r="EI128" s="24"/>
     </row>
     <row r="129" spans="1:139" ht="6" customHeight="1">
-      <c r="B129" s="57"/>
-      <c r="C129" s="62"/>
-      <c r="D129" s="62"/>
-      <c r="E129" s="62" t="s">
+      <c r="B129" s="75"/>
+      <c r="C129" s="66"/>
+      <c r="D129" s="66"/>
+      <c r="E129" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F129" s="66">
+      <c r="F129" s="69">
         <v>45805</v>
       </c>
-      <c r="G129" s="66"/>
-      <c r="H129" s="62" t="str">
+      <c r="G129" s="69">
+        <v>45810</v>
+      </c>
+      <c r="H129" s="66">
         <f>IF(G129="","-",G129-F129+1)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="AX129" s="7"/>
       <c r="AY129" s="7"/>
@@ -18962,13 +18963,13 @@
       <c r="EI129" s="7"/>
     </row>
     <row r="130" spans="1:139" ht="10.050000000000001" customHeight="1">
-      <c r="B130" s="57"/>
-      <c r="C130" s="62"/>
-      <c r="D130" s="62"/>
-      <c r="E130" s="62"/>
-      <c r="F130" s="66"/>
-      <c r="G130" s="66"/>
-      <c r="H130" s="62"/>
+      <c r="B130" s="75"/>
+      <c r="C130" s="66"/>
+      <c r="D130" s="66"/>
+      <c r="E130" s="66"/>
+      <c r="F130" s="69"/>
+      <c r="G130" s="69"/>
+      <c r="H130" s="66"/>
       <c r="AX130" s="7"/>
       <c r="AY130" s="7"/>
       <c r="AZ130" s="7"/>
@@ -19061,13 +19062,13 @@
       <c r="EI130" s="7"/>
     </row>
     <row r="131" spans="1:139" ht="6" customHeight="1">
-      <c r="B131" s="58"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="63"/>
-      <c r="E131" s="63"/>
-      <c r="F131" s="68"/>
-      <c r="G131" s="68"/>
-      <c r="H131" s="63"/>
+      <c r="B131" s="76"/>
+      <c r="C131" s="68"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="68"/>
+      <c r="F131" s="70"/>
+      <c r="G131" s="70"/>
+      <c r="H131" s="68"/>
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
       <c r="K131" s="25"/>
@@ -19202,28 +19203,28 @@
     </row>
     <row r="132" spans="1:139" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A132" s="19"/>
-      <c r="B132" s="57">
+      <c r="B132" s="75">
         <v>20</v>
       </c>
-      <c r="C132" s="61" t="s">
+      <c r="C132" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="61" t="str">
+      <c r="D132" s="65" t="str">
         <f>IF(C132="","-",IF(G135&lt;&gt;"","完成",IF(F135&lt;&gt;"","进行中","未开始")))</f>
-        <v>进行中</v>
-      </c>
-      <c r="E132" s="61" t="s">
+        <v>完成</v>
+      </c>
+      <c r="E132" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F132" s="65">
+      <c r="F132" s="71">
         <v>45726</v>
       </c>
-      <c r="G132" s="65">
-        <v>45813</v>
-      </c>
-      <c r="H132" s="61">
+      <c r="G132" s="71">
+        <v>45819</v>
+      </c>
+      <c r="H132" s="65">
         <f>IF(G132="","-",G132-F132+1)</f>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I132" s="23"/>
       <c r="J132" s="23"/>
@@ -19358,13 +19359,13 @@
       <c r="EI132" s="23"/>
     </row>
     <row r="133" spans="1:139" ht="10.050000000000001" customHeight="1">
-      <c r="B133" s="57"/>
-      <c r="C133" s="62"/>
-      <c r="D133" s="62"/>
-      <c r="E133" s="62"/>
-      <c r="F133" s="66"/>
-      <c r="G133" s="66"/>
-      <c r="H133" s="62"/>
+      <c r="B133" s="75"/>
+      <c r="C133" s="66"/>
+      <c r="D133" s="66"/>
+      <c r="E133" s="66"/>
+      <c r="F133" s="69"/>
+      <c r="G133" s="69"/>
+      <c r="H133" s="66"/>
       <c r="AX133" s="7"/>
       <c r="AY133" s="7"/>
       <c r="AZ133" s="7"/>
@@ -19457,13 +19458,13 @@
       <c r="EI133" s="7"/>
     </row>
     <row r="134" spans="1:139" ht="6" customHeight="1">
-      <c r="B134" s="57"/>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="67"/>
-      <c r="G134" s="67"/>
-      <c r="H134" s="64"/>
+      <c r="B134" s="75"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="66"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="72"/>
+      <c r="G134" s="72"/>
+      <c r="H134" s="67"/>
       <c r="I134" s="24"/>
       <c r="J134" s="24"/>
       <c r="K134" s="24"/>
@@ -19597,19 +19598,21 @@
       <c r="EI134" s="24"/>
     </row>
     <row r="135" spans="1:139" ht="6" customHeight="1">
-      <c r="B135" s="57"/>
-      <c r="C135" s="62"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="62" t="s">
+      <c r="B135" s="75"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="66"/>
+      <c r="E135" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F135" s="66">
+      <c r="F135" s="69">
         <v>45726</v>
       </c>
-      <c r="G135" s="66"/>
-      <c r="H135" s="62" t="str">
+      <c r="G135" s="69">
+        <v>45819</v>
+      </c>
+      <c r="H135" s="66">
         <f>IF(G135="","-",G135-F135+1)</f>
-        <v>-</v>
+        <v>94</v>
       </c>
       <c r="AX135" s="7"/>
       <c r="AY135" s="7"/>
@@ -19703,13 +19706,13 @@
       <c r="EI135" s="7"/>
     </row>
     <row r="136" spans="1:139" ht="10.050000000000001" customHeight="1">
-      <c r="B136" s="57"/>
-      <c r="C136" s="62"/>
-      <c r="D136" s="62"/>
-      <c r="E136" s="62"/>
-      <c r="F136" s="66"/>
-      <c r="G136" s="66"/>
-      <c r="H136" s="62"/>
+      <c r="B136" s="75"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="66"/>
+      <c r="F136" s="69"/>
+      <c r="G136" s="69"/>
+      <c r="H136" s="66"/>
       <c r="AX136" s="7"/>
       <c r="AY136" s="7"/>
       <c r="AZ136" s="7"/>
@@ -19802,13 +19805,13 @@
       <c r="EI136" s="7"/>
     </row>
     <row r="137" spans="1:139" ht="6" customHeight="1">
-      <c r="B137" s="58"/>
-      <c r="C137" s="63"/>
-      <c r="D137" s="63"/>
-      <c r="E137" s="63"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="63"/>
+      <c r="B137" s="76"/>
+      <c r="C137" s="68"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="70"/>
+      <c r="G137" s="70"/>
+      <c r="H137" s="68"/>
       <c r="I137" s="25"/>
       <c r="J137" s="25"/>
       <c r="K137" s="25"/>
@@ -19943,26 +19946,26 @@
     </row>
     <row r="138" spans="1:139" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A138" s="19"/>
-      <c r="B138" s="57">
+      <c r="B138" s="75">
         <v>21</v>
       </c>
-      <c r="C138" s="61" t="s">
+      <c r="C138" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D138" s="61" t="str">
+      <c r="D138" s="65" t="str">
         <f>IF(C138="","-",IF(G141&lt;&gt;"","完成",IF(F141&lt;&gt;"","进行中","未开始")))</f>
-        <v>进行中</v>
-      </c>
-      <c r="E138" s="61" t="s">
+        <v>完成</v>
+      </c>
+      <c r="E138" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F138" s="65">
+      <c r="F138" s="71">
         <v>45716</v>
       </c>
-      <c r="G138" s="65">
+      <c r="G138" s="71">
         <v>45813</v>
       </c>
-      <c r="H138" s="61">
+      <c r="H138" s="65">
         <f>IF(G138="","-",G138-F138+1)</f>
         <v>98</v>
       </c>
@@ -20099,13 +20102,13 @@
       <c r="EI138" s="23"/>
     </row>
     <row r="139" spans="1:139" ht="10.050000000000001" customHeight="1">
-      <c r="B139" s="57"/>
-      <c r="C139" s="62"/>
-      <c r="D139" s="62"/>
-      <c r="E139" s="62"/>
-      <c r="F139" s="66"/>
-      <c r="G139" s="66"/>
-      <c r="H139" s="62"/>
+      <c r="B139" s="75"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="66"/>
+      <c r="E139" s="66"/>
+      <c r="F139" s="69"/>
+      <c r="G139" s="69"/>
+      <c r="H139" s="66"/>
       <c r="AX139" s="7"/>
       <c r="AY139" s="7"/>
       <c r="AZ139" s="7"/>
@@ -20198,13 +20201,13 @@
       <c r="EI139" s="7"/>
     </row>
     <row r="140" spans="1:139" ht="6" customHeight="1">
-      <c r="B140" s="57"/>
-      <c r="C140" s="62"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="64"/>
-      <c r="F140" s="67"/>
-      <c r="G140" s="67"/>
-      <c r="H140" s="64"/>
+      <c r="B140" s="75"/>
+      <c r="C140" s="66"/>
+      <c r="D140" s="66"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="72"/>
+      <c r="H140" s="67"/>
       <c r="I140" s="24"/>
       <c r="J140" s="24"/>
       <c r="K140" s="24"/>
@@ -20338,19 +20341,21 @@
       <c r="EI140" s="24"/>
     </row>
     <row r="141" spans="1:139" ht="6" customHeight="1">
-      <c r="B141" s="57"/>
-      <c r="C141" s="62"/>
-      <c r="D141" s="62"/>
-      <c r="E141" s="62" t="s">
+      <c r="B141" s="75"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F141" s="66">
+      <c r="F141" s="69">
         <v>45716</v>
       </c>
-      <c r="G141" s="66"/>
-      <c r="H141" s="62" t="str">
+      <c r="G141" s="69">
+        <v>45816</v>
+      </c>
+      <c r="H141" s="66">
         <f>IF(G141="","-",G141-F141+1)</f>
-        <v>-</v>
+        <v>101</v>
       </c>
       <c r="AX141" s="7"/>
       <c r="AY141" s="7"/>
@@ -20444,13 +20449,13 @@
       <c r="EI141" s="7"/>
     </row>
     <row r="142" spans="1:139" ht="10.050000000000001" customHeight="1">
-      <c r="B142" s="57"/>
-      <c r="C142" s="62"/>
-      <c r="D142" s="62"/>
-      <c r="E142" s="62"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="66"/>
-      <c r="H142" s="62"/>
+      <c r="B142" s="75"/>
+      <c r="C142" s="66"/>
+      <c r="D142" s="66"/>
+      <c r="E142" s="66"/>
+      <c r="F142" s="69"/>
+      <c r="G142" s="69"/>
+      <c r="H142" s="66"/>
       <c r="AX142" s="7"/>
       <c r="AY142" s="7"/>
       <c r="AZ142" s="7"/>
@@ -20543,13 +20548,13 @@
       <c r="EI142" s="7"/>
     </row>
     <row r="143" spans="1:139" ht="6" customHeight="1">
-      <c r="B143" s="58"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="68"/>
-      <c r="G143" s="68"/>
-      <c r="H143" s="63"/>
+      <c r="B143" s="76"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="70"/>
+      <c r="G143" s="70"/>
+      <c r="H143" s="68"/>
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
       <c r="K143" s="25"/>
@@ -20684,26 +20689,26 @@
     </row>
     <row r="144" spans="1:139" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A144" s="19"/>
-      <c r="B144" s="57">
+      <c r="B144" s="75">
         <v>22</v>
       </c>
-      <c r="C144" s="61" t="s">
+      <c r="C144" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="61" t="str">
+      <c r="D144" s="65" t="str">
         <f>IF(C144="","-",IF(G147&lt;&gt;"","完成",IF(F147&lt;&gt;"","进行中","未开始")))</f>
-        <v>未开始</v>
-      </c>
-      <c r="E144" s="61" t="s">
+        <v>完成</v>
+      </c>
+      <c r="E144" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F144" s="65">
+      <c r="F144" s="71">
         <v>45809</v>
       </c>
-      <c r="G144" s="65">
+      <c r="G144" s="71">
         <v>45813</v>
       </c>
-      <c r="H144" s="61">
+      <c r="H144" s="65">
         <f>IF(G144="","-",G144-F144+1)</f>
         <v>5</v>
       </c>
@@ -20840,13 +20845,13 @@
       <c r="EI144" s="23"/>
     </row>
     <row r="145" spans="1:139" ht="10.050000000000001" customHeight="1">
-      <c r="B145" s="57"/>
-      <c r="C145" s="62"/>
-      <c r="D145" s="62"/>
-      <c r="E145" s="62"/>
-      <c r="F145" s="66"/>
-      <c r="G145" s="66"/>
-      <c r="H145" s="62"/>
+      <c r="B145" s="75"/>
+      <c r="C145" s="66"/>
+      <c r="D145" s="66"/>
+      <c r="E145" s="66"/>
+      <c r="F145" s="69"/>
+      <c r="G145" s="69"/>
+      <c r="H145" s="66"/>
       <c r="AX145" s="7"/>
       <c r="AY145" s="7"/>
       <c r="AZ145" s="7"/>
@@ -20939,13 +20944,13 @@
       <c r="EI145" s="7"/>
     </row>
     <row r="146" spans="1:139" ht="6" customHeight="1">
-      <c r="B146" s="57"/>
-      <c r="C146" s="62"/>
-      <c r="D146" s="62"/>
-      <c r="E146" s="64"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="67"/>
-      <c r="H146" s="64"/>
+      <c r="B146" s="75"/>
+      <c r="C146" s="66"/>
+      <c r="D146" s="66"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="67"/>
       <c r="I146" s="24"/>
       <c r="J146" s="24"/>
       <c r="K146" s="24"/>
@@ -21079,17 +21084,21 @@
       <c r="EI146" s="24"/>
     </row>
     <row r="147" spans="1:139" ht="6" customHeight="1">
-      <c r="B147" s="57"/>
-      <c r="C147" s="62"/>
-      <c r="D147" s="62"/>
-      <c r="E147" s="62" t="s">
+      <c r="B147" s="75"/>
+      <c r="C147" s="66"/>
+      <c r="D147" s="66"/>
+      <c r="E147" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F147" s="66"/>
-      <c r="G147" s="66"/>
-      <c r="H147" s="62" t="str">
+      <c r="F147" s="69">
+        <v>45809</v>
+      </c>
+      <c r="G147" s="69">
+        <v>45814</v>
+      </c>
+      <c r="H147" s="66">
         <f>IF(G147="","-",G147-F147+1)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="AX147" s="7"/>
       <c r="AY147" s="7"/>
@@ -21183,13 +21192,13 @@
       <c r="EI147" s="7"/>
     </row>
     <row r="148" spans="1:139" ht="10.050000000000001" customHeight="1">
-      <c r="B148" s="57"/>
-      <c r="C148" s="62"/>
-      <c r="D148" s="62"/>
-      <c r="E148" s="62"/>
-      <c r="F148" s="66"/>
-      <c r="G148" s="66"/>
-      <c r="H148" s="62"/>
+      <c r="B148" s="75"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="66"/>
+      <c r="E148" s="66"/>
+      <c r="F148" s="69"/>
+      <c r="G148" s="69"/>
+      <c r="H148" s="66"/>
       <c r="AX148" s="7"/>
       <c r="AY148" s="7"/>
       <c r="AZ148" s="7"/>
@@ -21282,13 +21291,13 @@
       <c r="EI148" s="7"/>
     </row>
     <row r="149" spans="1:139" ht="6" customHeight="1">
-      <c r="B149" s="58"/>
-      <c r="C149" s="63"/>
-      <c r="D149" s="63"/>
-      <c r="E149" s="63"/>
-      <c r="F149" s="68"/>
-      <c r="G149" s="68"/>
-      <c r="H149" s="63"/>
+      <c r="B149" s="76"/>
+      <c r="C149" s="68"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="68"/>
+      <c r="F149" s="70"/>
+      <c r="G149" s="70"/>
+      <c r="H149" s="68"/>
       <c r="I149" s="25"/>
       <c r="J149" s="25"/>
       <c r="K149" s="25"/>
@@ -22757,57 +22766,199 @@
     <row r="239" spans="1:82" ht="6" customHeight="1"/>
   </sheetData>
   <mergeCells count="270">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B15:AD16"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H138:H140"/>
-    <mergeCell ref="H141:H143"/>
-    <mergeCell ref="H144:H146"/>
-    <mergeCell ref="H147:H149"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="H114:H116"/>
-    <mergeCell ref="H117:H119"/>
-    <mergeCell ref="H120:H122"/>
-    <mergeCell ref="H123:H125"/>
-    <mergeCell ref="H126:H128"/>
-    <mergeCell ref="H129:H131"/>
-    <mergeCell ref="H132:H134"/>
-    <mergeCell ref="H135:H137"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="H99:H101"/>
-    <mergeCell ref="H102:H104"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AW2"/>
+    <mergeCell ref="AX2:BK2"/>
+    <mergeCell ref="BL2:BY2"/>
+    <mergeCell ref="BZ2:CM2"/>
+    <mergeCell ref="CN2:DA2"/>
+    <mergeCell ref="DB2:DO2"/>
+    <mergeCell ref="F3:N4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="S3:AA4"/>
+    <mergeCell ref="T5:Z5"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="D126:D131"/>
+    <mergeCell ref="D132:D137"/>
+    <mergeCell ref="D138:D143"/>
+    <mergeCell ref="D144:D149"/>
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="C138:C143"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="D72:D77"/>
+    <mergeCell ref="D78:D83"/>
+    <mergeCell ref="D84:D89"/>
+    <mergeCell ref="D90:D95"/>
+    <mergeCell ref="D96:D101"/>
+    <mergeCell ref="D102:D107"/>
+    <mergeCell ref="D108:D113"/>
+    <mergeCell ref="D114:D119"/>
+    <mergeCell ref="D120:D125"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D66:D71"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="E120:E122"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="F99:F101"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="F141:F143"/>
+    <mergeCell ref="F144:F146"/>
+    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="F120:F122"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="G129:G131"/>
+    <mergeCell ref="G132:G134"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G69:G71"/>
     <mergeCell ref="H72:H74"/>
     <mergeCell ref="H75:H77"/>
     <mergeCell ref="H78:H80"/>
@@ -22832,201 +22983,59 @@
     <mergeCell ref="G90:G92"/>
     <mergeCell ref="G93:G95"/>
     <mergeCell ref="G96:G98"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="G129:G131"/>
-    <mergeCell ref="G132:G134"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="F141:F143"/>
-    <mergeCell ref="F144:F146"/>
-    <mergeCell ref="F147:F149"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="F120:F122"/>
-    <mergeCell ref="F123:F125"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="F99:F101"/>
-    <mergeCell ref="F102:F104"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="E120:E122"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="D78:D83"/>
-    <mergeCell ref="D84:D89"/>
-    <mergeCell ref="D90:D95"/>
-    <mergeCell ref="D96:D101"/>
-    <mergeCell ref="D102:D107"/>
-    <mergeCell ref="D108:D113"/>
-    <mergeCell ref="D114:D119"/>
-    <mergeCell ref="D120:D125"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="D54:D59"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D66:D71"/>
-    <mergeCell ref="D132:D137"/>
-    <mergeCell ref="D138:D143"/>
-    <mergeCell ref="D144:D149"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="C138:C143"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C96:C101"/>
-    <mergeCell ref="C102:C107"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="D72:D77"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="B138:B143"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="B96:B101"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="B126:B131"/>
-    <mergeCell ref="B132:B137"/>
-    <mergeCell ref="D126:D131"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="H99:H101"/>
+    <mergeCell ref="H102:H104"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="H138:H140"/>
+    <mergeCell ref="H141:H143"/>
+    <mergeCell ref="H144:H146"/>
+    <mergeCell ref="H147:H149"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="H114:H116"/>
+    <mergeCell ref="H117:H119"/>
+    <mergeCell ref="H120:H122"/>
+    <mergeCell ref="H123:H125"/>
+    <mergeCell ref="H126:H128"/>
+    <mergeCell ref="H129:H131"/>
+    <mergeCell ref="H132:H134"/>
+    <mergeCell ref="H135:H137"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B15:AD16"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="I6:N6"/>
-    <mergeCell ref="F3:N4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="B2:AD2"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="S3:AA4"/>
-    <mergeCell ref="T5:Z5"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ2:AW2"/>
-    <mergeCell ref="AX2:BK2"/>
-    <mergeCell ref="BL2:BY2"/>
-    <mergeCell ref="BZ2:CM2"/>
-    <mergeCell ref="CN2:DA2"/>
-    <mergeCell ref="DB2:DO2"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="I22:AV22 I28:DO28 I34:DO34 I40:DO40 I46:DO46 I52:DO52 I58:DO58 I64:DO64 I70:DO70 I76:DO76 I82:DO82 I88:DO88 I94:DO94 I100:DO100 I106:DO106 I112:DO112 I118:DO118 I124:DO124 I130:EI130 I136:EI136 I142:EI142 I148:EI148">
@@ -23103,12 +23112,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="29" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="2:5" ht="27" customHeight="1">
       <c r="B3" s="3" t="s">
